--- a/week11/week10_tsdata_original.xlsx
+++ b/week11/week10_tsdata_original.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="blank.csv" sheetId="1" state="visible" r:id="rId2"/>
@@ -17,12 +17,13 @@
     <sheet name="Pivot Table_Sheet6_1" sheetId="7" state="visible" r:id="rId8"/>
     <sheet name="Pivot Table_Sheet6_2" sheetId="8" state="visible" r:id="rId9"/>
     <sheet name="Sheet9" sheetId="9" state="visible" r:id="rId10"/>
+    <sheet name="Sheet10" sheetId="10" state="visible" r:id="rId11"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <pivotCaches>
-    <pivotCache cacheId="1" r:id="rId12"/>
-    <pivotCache cacheId="2" r:id="rId13"/>
-    <pivotCache cacheId="3" r:id="rId14"/>
+    <pivotCache cacheId="1" r:id="rId13"/>
+    <pivotCache cacheId="2" r:id="rId14"/>
+    <pivotCache cacheId="3" r:id="rId15"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="58">
   <si>
     <t xml:space="preserve">Date</t>
   </si>
@@ -181,6 +182,33 @@
   <si>
     <t xml:space="preserve">weekday</t>
   </si>
+  <si>
+    <t xml:space="preserve">Target</t>
+  </si>
+  <si>
+    <t xml:space="preserve">??</t>
+  </si>
+  <si>
+    <t xml:space="preserve">disadvantage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">:NO INPUT VARIABLES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">advantage of time series data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yesterday</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 days ago</t>
+  </si>
+  <si>
+    <t xml:space="preserve">order</t>
+  </si>
+  <si>
+    <t xml:space="preserve">today</t>
+  </si>
 </sst>
 </file>
 
@@ -192,7 +220,7 @@
     <numFmt numFmtId="166" formatCode="0.0"/>
     <numFmt numFmtId="167" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -230,13 +258,24 @@
       <family val="0"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="16">
@@ -396,7 +435,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="34">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -497,22 +536,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="25" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="25" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="25" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="9" xfId="23" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="22" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -537,8 +560,16 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -556,7 +587,2941 @@
     <cellStyle name="Pivot Table Title" xfId="24"/>
     <cellStyle name="Pivot Table Value" xfId="25"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFB3B3B3"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF004586"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'blank.csv'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Value</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'blank.csv'!$B$2:$B$880</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="879"/>
+                <c:pt idx="0">
+                  <c:v>4321</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3491</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2794</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1924</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3716</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3496</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3502</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3226</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3012</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2456</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1910</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3505</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2915</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3462</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3281</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3345</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2497</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1786</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3335</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3041</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2930</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3043</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3275</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2106</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1501</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3048</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3003</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2874</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3088</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2782</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2155</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1557</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3122</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3614</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3401</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3170</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2966</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2254</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1689</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3085</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2636</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2844</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>3197</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2912</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2036</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1509</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>3136</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>3124</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2842</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>3190</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>3221</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1829</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1443</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>3119</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2771</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2969</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>3048</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>2939</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>2062</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1773</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>3442</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>2961</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>3226</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>3085</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>3114</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>2230</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1781</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>3573</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>3571</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>3547</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>3192</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>3190</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>2339</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1737</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>3422</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>3172</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>3066</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>2881</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>3122</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1676</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>2305</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>3315</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>3299</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>3384</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>3264</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>2434</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1742</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>3396</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>2606</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>3488</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>3226</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>3342</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>3697</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>3153</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>2318</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>4250</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>3830</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>4131</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>4680</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>4136</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>3306</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>2590</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>3355</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>1290</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>1953</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>1977</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>2172</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>2340</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>2354</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>4732</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>4399</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>4017</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>3425</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>3891</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>3184</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>2322</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>4457</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>4022</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>4335</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>3867</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>3780</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>2738</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>3908</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>3750</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>3777</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>3318</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>3413</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>2667</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>1866</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>3724</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>3313</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>3666</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>3576</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>3223</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>2397</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>1910</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>3675</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>3202</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>3325</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>3279</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>3253</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>2524</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>1875</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>3644</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>3252</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>3236</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>3267</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>3350</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>2601</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>1681</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>3631</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>3233</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>3080</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>2922</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>3304</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>2563</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>1890</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>3677</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>3464</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>3289</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>3325</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>3602</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>2463</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>1864</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>3697</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>3303</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>3182</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>3148</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>3172</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>2437</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>1740</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>2682</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>3612</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>3354</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>3309</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>3129</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>2725</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>1898</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>3680</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>3260</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>3270</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>3315</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>3126</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>2587</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>1864</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>3451</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>3638</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>3133</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>3289</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>3253</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>2601</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>2123</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>4088</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>4063</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>4902</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>4437</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>3529</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>2708</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>4423</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>4447</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>4363</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>3933</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>4391</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>4076</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>2963</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>4860</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>4843</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>4892</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>4651</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>4556</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>3955</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>3049</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>5066</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>4549</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>4442</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>4404</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>4340</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>4136</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>3575</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>5438</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>5921</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>6228</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>5837</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>5812</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>4899</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>3911</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>6230</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>7252</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>7189</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>6783</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>6273</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>6026</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>5256</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>8372</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>3496</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>5887</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>5640</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>5576</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>4401</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>3114</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>6063</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>5769</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>5224</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>5253</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>5084</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>4120</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>3457</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>5598</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>5412</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>5266</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>5249</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>5151</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>4561</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>3464</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>6169</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>5679</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>5606</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>5797</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>6347</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>4788</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>4003</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>6968</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>7133</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>7542</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>7357</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>4882</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>3068</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>2162</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>3728</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>3491</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>3405</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>3357</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>2884</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>2403</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>1861</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>3491</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>3078</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>2879</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>2937</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>3044</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>2390</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>1948</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>3787</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>3058</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>2847</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>2913</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>3051</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>2318</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>1744</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>3561</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>3253</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>3257</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>2896</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>3920</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>2286</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>1762</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>3291</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>3075</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>3002</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>2913</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>2896</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>2412</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>1771</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>3651</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>2828</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>3284</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>2839</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>3141</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>2441</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>2046</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>3527</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>3381</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>3332</c:v>
+                </c:pt>
+                <c:pt idx="315">
+                  <c:v>3207</c:v>
+                </c:pt>
+                <c:pt idx="316">
+                  <c:v>3422</c:v>
+                </c:pt>
+                <c:pt idx="317">
+                  <c:v>2347</c:v>
+                </c:pt>
+                <c:pt idx="318">
+                  <c:v>1927</c:v>
+                </c:pt>
+                <c:pt idx="319">
+                  <c:v>3641</c:v>
+                </c:pt>
+                <c:pt idx="320">
+                  <c:v>3394</c:v>
+                </c:pt>
+                <c:pt idx="321">
+                  <c:v>3393</c:v>
+                </c:pt>
+                <c:pt idx="322">
+                  <c:v>3350</c:v>
+                </c:pt>
+                <c:pt idx="323">
+                  <c:v>3320</c:v>
+                </c:pt>
+                <c:pt idx="324">
+                  <c:v>2587</c:v>
+                </c:pt>
+                <c:pt idx="325">
+                  <c:v>1626</c:v>
+                </c:pt>
+                <c:pt idx="326">
+                  <c:v>3537</c:v>
+                </c:pt>
+                <c:pt idx="327">
+                  <c:v>3265</c:v>
+                </c:pt>
+                <c:pt idx="328">
+                  <c:v>3607</c:v>
+                </c:pt>
+                <c:pt idx="329">
+                  <c:v>3262</c:v>
+                </c:pt>
+                <c:pt idx="330">
+                  <c:v>3236</c:v>
+                </c:pt>
+                <c:pt idx="331">
+                  <c:v>2308</c:v>
+                </c:pt>
+                <c:pt idx="332">
+                  <c:v>1977</c:v>
+                </c:pt>
+                <c:pt idx="333">
+                  <c:v>3653</c:v>
+                </c:pt>
+                <c:pt idx="334">
+                  <c:v>3333</c:v>
+                </c:pt>
+                <c:pt idx="335">
+                  <c:v>3204</c:v>
+                </c:pt>
+                <c:pt idx="336">
+                  <c:v>3112</c:v>
+                </c:pt>
+                <c:pt idx="337">
+                  <c:v>3141</c:v>
+                </c:pt>
+                <c:pt idx="338">
+                  <c:v>1751</c:v>
+                </c:pt>
+                <c:pt idx="339">
+                  <c:v>3748</c:v>
+                </c:pt>
+                <c:pt idx="340">
+                  <c:v>3456</c:v>
+                </c:pt>
+                <c:pt idx="341">
+                  <c:v>3366</c:v>
+                </c:pt>
+                <c:pt idx="342">
+                  <c:v>3236</c:v>
+                </c:pt>
+                <c:pt idx="343">
+                  <c:v>3019</c:v>
+                </c:pt>
+                <c:pt idx="344">
+                  <c:v>2502</c:v>
+                </c:pt>
+                <c:pt idx="345">
+                  <c:v>1705</c:v>
+                </c:pt>
+                <c:pt idx="346">
+                  <c:v>3418</c:v>
+                </c:pt>
+                <c:pt idx="347">
+                  <c:v>2558</c:v>
+                </c:pt>
+                <c:pt idx="348">
+                  <c:v>3313</c:v>
+                </c:pt>
+                <c:pt idx="349">
+                  <c:v>3230</c:v>
+                </c:pt>
+                <c:pt idx="350">
+                  <c:v>3275</c:v>
+                </c:pt>
+                <c:pt idx="351">
+                  <c:v>2383</c:v>
+                </c:pt>
+                <c:pt idx="352">
+                  <c:v>1739</c:v>
+                </c:pt>
+                <c:pt idx="353">
+                  <c:v>3542</c:v>
+                </c:pt>
+                <c:pt idx="354">
+                  <c:v>3366</c:v>
+                </c:pt>
+                <c:pt idx="355">
+                  <c:v>2570</c:v>
+                </c:pt>
+                <c:pt idx="356">
+                  <c:v>3274</c:v>
+                </c:pt>
+                <c:pt idx="357">
+                  <c:v>3258</c:v>
+                </c:pt>
+                <c:pt idx="358">
+                  <c:v>2665</c:v>
+                </c:pt>
+                <c:pt idx="359">
+                  <c:v>1808</c:v>
+                </c:pt>
+                <c:pt idx="360">
+                  <c:v>3197</c:v>
+                </c:pt>
+                <c:pt idx="361">
+                  <c:v>3151</c:v>
+                </c:pt>
+                <c:pt idx="362">
+                  <c:v>3294</c:v>
+                </c:pt>
+                <c:pt idx="363">
+                  <c:v>3252</c:v>
+                </c:pt>
+                <c:pt idx="364">
+                  <c:v>3345</c:v>
+                </c:pt>
+                <c:pt idx="365">
+                  <c:v>2551</c:v>
+                </c:pt>
+                <c:pt idx="366">
+                  <c:v>1875</c:v>
+                </c:pt>
+                <c:pt idx="367">
+                  <c:v>3464</c:v>
+                </c:pt>
+                <c:pt idx="368">
+                  <c:v>3247</c:v>
+                </c:pt>
+                <c:pt idx="369">
+                  <c:v>3355</c:v>
+                </c:pt>
+                <c:pt idx="370">
+                  <c:v>3454</c:v>
+                </c:pt>
+                <c:pt idx="371">
+                  <c:v>3014</c:v>
+                </c:pt>
+                <c:pt idx="372">
+                  <c:v>2431</c:v>
+                </c:pt>
+                <c:pt idx="373">
+                  <c:v>1769</c:v>
+                </c:pt>
+                <c:pt idx="374">
+                  <c:v>3479</c:v>
+                </c:pt>
+                <c:pt idx="375">
+                  <c:v>3415</c:v>
+                </c:pt>
+                <c:pt idx="376">
+                  <c:v>3155</c:v>
+                </c:pt>
+                <c:pt idx="377">
+                  <c:v>3029</c:v>
+                </c:pt>
+                <c:pt idx="378">
+                  <c:v>3369</c:v>
+                </c:pt>
+                <c:pt idx="379">
+                  <c:v>2716</c:v>
+                </c:pt>
+                <c:pt idx="380">
+                  <c:v>2096</c:v>
+                </c:pt>
+                <c:pt idx="381">
+                  <c:v>4115</c:v>
+                </c:pt>
+                <c:pt idx="382">
+                  <c:v>3649</c:v>
+                </c:pt>
+                <c:pt idx="383">
+                  <c:v>3785</c:v>
+                </c:pt>
+                <c:pt idx="384">
+                  <c:v>3763</c:v>
+                </c:pt>
+                <c:pt idx="385">
+                  <c:v>4122</c:v>
+                </c:pt>
+                <c:pt idx="386">
+                  <c:v>3972</c:v>
+                </c:pt>
+                <c:pt idx="387">
+                  <c:v>2643</c:v>
+                </c:pt>
+                <c:pt idx="388">
+                  <c:v>3301</c:v>
+                </c:pt>
+                <c:pt idx="389">
+                  <c:v>1679</c:v>
+                </c:pt>
+                <c:pt idx="390">
+                  <c:v>1825</c:v>
+                </c:pt>
+                <c:pt idx="391">
+                  <c:v>1919</c:v>
+                </c:pt>
+                <c:pt idx="392">
+                  <c:v>2903</c:v>
+                </c:pt>
+                <c:pt idx="393">
+                  <c:v>2692</c:v>
+                </c:pt>
+                <c:pt idx="394">
+                  <c:v>2262</c:v>
+                </c:pt>
+                <c:pt idx="395">
+                  <c:v>4341</c:v>
+                </c:pt>
+                <c:pt idx="396">
+                  <c:v>3898</c:v>
+                </c:pt>
+                <c:pt idx="397">
+                  <c:v>3527</c:v>
+                </c:pt>
+                <c:pt idx="398">
+                  <c:v>3435</c:v>
+                </c:pt>
+                <c:pt idx="399">
+                  <c:v>3461</c:v>
+                </c:pt>
+                <c:pt idx="400">
+                  <c:v>2827</c:v>
+                </c:pt>
+                <c:pt idx="401">
+                  <c:v>2102</c:v>
+                </c:pt>
+                <c:pt idx="402">
+                  <c:v>3680</c:v>
+                </c:pt>
+                <c:pt idx="403">
+                  <c:v>3473</c:v>
+                </c:pt>
+                <c:pt idx="404">
+                  <c:v>3502</c:v>
+                </c:pt>
+                <c:pt idx="405">
+                  <c:v>3224</c:v>
+                </c:pt>
+                <c:pt idx="406">
+                  <c:v>3598</c:v>
+                </c:pt>
+                <c:pt idx="407">
+                  <c:v>2619</c:v>
+                </c:pt>
+                <c:pt idx="408">
+                  <c:v>2072</c:v>
+                </c:pt>
+                <c:pt idx="409">
+                  <c:v>3646</c:v>
+                </c:pt>
+                <c:pt idx="410">
+                  <c:v>3777</c:v>
+                </c:pt>
+                <c:pt idx="411">
+                  <c:v>4074</c:v>
+                </c:pt>
+                <c:pt idx="412">
+                  <c:v>3553</c:v>
+                </c:pt>
+                <c:pt idx="413">
+                  <c:v>3394</c:v>
+                </c:pt>
+                <c:pt idx="414">
+                  <c:v>2612</c:v>
+                </c:pt>
+                <c:pt idx="415">
+                  <c:v>2193</c:v>
+                </c:pt>
+                <c:pt idx="416">
+                  <c:v>3765</c:v>
+                </c:pt>
+                <c:pt idx="417">
+                  <c:v>3604</c:v>
+                </c:pt>
+                <c:pt idx="418">
+                  <c:v>3352</c:v>
+                </c:pt>
+                <c:pt idx="419">
+                  <c:v>3243</c:v>
+                </c:pt>
+                <c:pt idx="420">
+                  <c:v>3435</c:v>
+                </c:pt>
+                <c:pt idx="421">
+                  <c:v>2663</c:v>
+                </c:pt>
+                <c:pt idx="422">
+                  <c:v>1963</c:v>
+                </c:pt>
+                <c:pt idx="423">
+                  <c:v>3632</c:v>
+                </c:pt>
+                <c:pt idx="424">
+                  <c:v>3680</c:v>
+                </c:pt>
+                <c:pt idx="425">
+                  <c:v>3855</c:v>
+                </c:pt>
+                <c:pt idx="426">
+                  <c:v>3564</c:v>
+                </c:pt>
+                <c:pt idx="427">
+                  <c:v>3427</c:v>
+                </c:pt>
+                <c:pt idx="428">
+                  <c:v>2650</c:v>
+                </c:pt>
+                <c:pt idx="429">
+                  <c:v>1810</c:v>
+                </c:pt>
+                <c:pt idx="430">
+                  <c:v>2794</c:v>
+                </c:pt>
+                <c:pt idx="431">
+                  <c:v>3918</c:v>
+                </c:pt>
+                <c:pt idx="432">
+                  <c:v>3296</c:v>
+                </c:pt>
+                <c:pt idx="433">
+                  <c:v>3136</c:v>
+                </c:pt>
+                <c:pt idx="434">
+                  <c:v>3267</c:v>
+                </c:pt>
+                <c:pt idx="435">
+                  <c:v>2556</c:v>
+                </c:pt>
+                <c:pt idx="436">
+                  <c:v>1842</c:v>
+                </c:pt>
+                <c:pt idx="437">
+                  <c:v>3736</c:v>
+                </c:pt>
+                <c:pt idx="438">
+                  <c:v>3332</c:v>
+                </c:pt>
+                <c:pt idx="439">
+                  <c:v>3104</c:v>
+                </c:pt>
+                <c:pt idx="440">
+                  <c:v>3082</c:v>
+                </c:pt>
+                <c:pt idx="441">
+                  <c:v>3099</c:v>
+                </c:pt>
+                <c:pt idx="442">
+                  <c:v>2427</c:v>
+                </c:pt>
+                <c:pt idx="443">
+                  <c:v>1931</c:v>
+                </c:pt>
+                <c:pt idx="444">
+                  <c:v>3379</c:v>
+                </c:pt>
+                <c:pt idx="445">
+                  <c:v>3048</c:v>
+                </c:pt>
+                <c:pt idx="446">
+                  <c:v>3235</c:v>
+                </c:pt>
+                <c:pt idx="447">
+                  <c:v>3541</c:v>
+                </c:pt>
+                <c:pt idx="448">
+                  <c:v>3253</c:v>
+                </c:pt>
+                <c:pt idx="449">
+                  <c:v>2468</c:v>
+                </c:pt>
+                <c:pt idx="450">
+                  <c:v>1793</c:v>
+                </c:pt>
+                <c:pt idx="451">
+                  <c:v>3355</c:v>
+                </c:pt>
+                <c:pt idx="452">
+                  <c:v>3462</c:v>
+                </c:pt>
+                <c:pt idx="453">
+                  <c:v>3507</c:v>
+                </c:pt>
+                <c:pt idx="454">
+                  <c:v>4722</c:v>
+                </c:pt>
+                <c:pt idx="455">
+                  <c:v>7658</c:v>
+                </c:pt>
+                <c:pt idx="456">
+                  <c:v>7466</c:v>
+                </c:pt>
+                <c:pt idx="457">
+                  <c:v>3916</c:v>
+                </c:pt>
+                <c:pt idx="458">
+                  <c:v>4777</c:v>
+                </c:pt>
+                <c:pt idx="459">
+                  <c:v>4338</c:v>
+                </c:pt>
+                <c:pt idx="460">
+                  <c:v>4207</c:v>
+                </c:pt>
+                <c:pt idx="461">
+                  <c:v>5458</c:v>
+                </c:pt>
+                <c:pt idx="462">
+                  <c:v>4880</c:v>
+                </c:pt>
+                <c:pt idx="463">
+                  <c:v>4569</c:v>
+                </c:pt>
+                <c:pt idx="464">
+                  <c:v>4006</c:v>
+                </c:pt>
+                <c:pt idx="465">
+                  <c:v>6354</c:v>
+                </c:pt>
+                <c:pt idx="466">
+                  <c:v>5091</c:v>
+                </c:pt>
+                <c:pt idx="467">
+                  <c:v>4595</c:v>
+                </c:pt>
+                <c:pt idx="468">
+                  <c:v>3976</c:v>
+                </c:pt>
+                <c:pt idx="469">
+                  <c:v>3811</c:v>
+                </c:pt>
+                <c:pt idx="470">
+                  <c:v>3364</c:v>
+                </c:pt>
+                <c:pt idx="471">
+                  <c:v>2723</c:v>
+                </c:pt>
+                <c:pt idx="472">
+                  <c:v>4586</c:v>
+                </c:pt>
+                <c:pt idx="473">
+                  <c:v>3753</c:v>
+                </c:pt>
+                <c:pt idx="474">
+                  <c:v>3745</c:v>
+                </c:pt>
+                <c:pt idx="475">
+                  <c:v>3979</c:v>
+                </c:pt>
+                <c:pt idx="476">
+                  <c:v>2816</c:v>
+                </c:pt>
+                <c:pt idx="477">
+                  <c:v>2924</c:v>
+                </c:pt>
+                <c:pt idx="478">
+                  <c:v>2352</c:v>
+                </c:pt>
+                <c:pt idx="479">
+                  <c:v>4117</c:v>
+                </c:pt>
+                <c:pt idx="480">
+                  <c:v>3860</c:v>
+                </c:pt>
+                <c:pt idx="481">
+                  <c:v>3556</c:v>
+                </c:pt>
+                <c:pt idx="482">
+                  <c:v>3585</c:v>
+                </c:pt>
+                <c:pt idx="483">
+                  <c:v>3605</c:v>
+                </c:pt>
+                <c:pt idx="484">
+                  <c:v>2709</c:v>
+                </c:pt>
+                <c:pt idx="485">
+                  <c:v>2109</c:v>
+                </c:pt>
+                <c:pt idx="486">
+                  <c:v>3767</c:v>
+                </c:pt>
+                <c:pt idx="487">
+                  <c:v>3799</c:v>
+                </c:pt>
+                <c:pt idx="488">
+                  <c:v>3481</c:v>
+                </c:pt>
+                <c:pt idx="489">
+                  <c:v>3337</c:v>
+                </c:pt>
+                <c:pt idx="490">
+                  <c:v>3065</c:v>
+                </c:pt>
+                <c:pt idx="491">
+                  <c:v>2903</c:v>
+                </c:pt>
+                <c:pt idx="492">
+                  <c:v>2357</c:v>
+                </c:pt>
+                <c:pt idx="493">
+                  <c:v>3806</c:v>
+                </c:pt>
+                <c:pt idx="494">
+                  <c:v>4362</c:v>
+                </c:pt>
+                <c:pt idx="495">
+                  <c:v>3835</c:v>
+                </c:pt>
+                <c:pt idx="496">
+                  <c:v>3821</c:v>
+                </c:pt>
+                <c:pt idx="497">
+                  <c:v>3760</c:v>
+                </c:pt>
+                <c:pt idx="498">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="499">
+                  <c:v>2521</c:v>
+                </c:pt>
+                <c:pt idx="500">
+                  <c:v>3915</c:v>
+                </c:pt>
+                <c:pt idx="501">
+                  <c:v>3770</c:v>
+                </c:pt>
+                <c:pt idx="502">
+                  <c:v>3680</c:v>
+                </c:pt>
+                <c:pt idx="503">
+                  <c:v>3241</c:v>
+                </c:pt>
+                <c:pt idx="504">
+                  <c:v>3765</c:v>
+                </c:pt>
+                <c:pt idx="505">
+                  <c:v>3083</c:v>
+                </c:pt>
+                <c:pt idx="506">
+                  <c:v>2558</c:v>
+                </c:pt>
+                <c:pt idx="507">
+                  <c:v>4129</c:v>
+                </c:pt>
+                <c:pt idx="508">
+                  <c:v>4086</c:v>
+                </c:pt>
+                <c:pt idx="509">
+                  <c:v>3833</c:v>
+                </c:pt>
+                <c:pt idx="510">
+                  <c:v>3801</c:v>
+                </c:pt>
+                <c:pt idx="511">
+                  <c:v>3933</c:v>
+                </c:pt>
+                <c:pt idx="512">
+                  <c:v>2969</c:v>
+                </c:pt>
+                <c:pt idx="513">
+                  <c:v>2465</c:v>
+                </c:pt>
+                <c:pt idx="514">
+                  <c:v>4469</c:v>
+                </c:pt>
+                <c:pt idx="515">
+                  <c:v>3711</c:v>
+                </c:pt>
+                <c:pt idx="516">
+                  <c:v>3753</c:v>
+                </c:pt>
+                <c:pt idx="517">
+                  <c:v>3632</c:v>
+                </c:pt>
+                <c:pt idx="518">
+                  <c:v>3760</c:v>
+                </c:pt>
+                <c:pt idx="519">
+                  <c:v>2878</c:v>
+                </c:pt>
+                <c:pt idx="520">
+                  <c:v>2422</c:v>
+                </c:pt>
+                <c:pt idx="521">
+                  <c:v>4012</c:v>
+                </c:pt>
+                <c:pt idx="522">
+                  <c:v>3852</c:v>
+                </c:pt>
+                <c:pt idx="523">
+                  <c:v>3791</c:v>
+                </c:pt>
+                <c:pt idx="524">
+                  <c:v>3915</c:v>
+                </c:pt>
+                <c:pt idx="525">
+                  <c:v>3933</c:v>
+                </c:pt>
+                <c:pt idx="526">
+                  <c:v>3158</c:v>
+                </c:pt>
+                <c:pt idx="527">
+                  <c:v>2476</c:v>
+                </c:pt>
+                <c:pt idx="528">
+                  <c:v>4304</c:v>
+                </c:pt>
+                <c:pt idx="529">
+                  <c:v>3690</c:v>
+                </c:pt>
+                <c:pt idx="530">
+                  <c:v>4073</c:v>
+                </c:pt>
+                <c:pt idx="531">
+                  <c:v>4131</c:v>
+                </c:pt>
+                <c:pt idx="532">
+                  <c:v>3131</c:v>
+                </c:pt>
+                <c:pt idx="533">
+                  <c:v>2351</c:v>
+                </c:pt>
+                <c:pt idx="534">
+                  <c:v>3942</c:v>
+                </c:pt>
+                <c:pt idx="535">
+                  <c:v>2857</c:v>
+                </c:pt>
+                <c:pt idx="536">
+                  <c:v>4233</c:v>
+                </c:pt>
+                <c:pt idx="537">
+                  <c:v>3870</c:v>
+                </c:pt>
+                <c:pt idx="538">
+                  <c:v>4100</c:v>
+                </c:pt>
+                <c:pt idx="539">
+                  <c:v>3366</c:v>
+                </c:pt>
+                <c:pt idx="540">
+                  <c:v>2560</c:v>
+                </c:pt>
+                <c:pt idx="541">
+                  <c:v>3609</c:v>
+                </c:pt>
+                <c:pt idx="542">
+                  <c:v>3510</c:v>
+                </c:pt>
+                <c:pt idx="543">
+                  <c:v>3180</c:v>
+                </c:pt>
+                <c:pt idx="544">
+                  <c:v>3277</c:v>
+                </c:pt>
+                <c:pt idx="545">
+                  <c:v>3133</c:v>
+                </c:pt>
+                <c:pt idx="546">
+                  <c:v>2551</c:v>
+                </c:pt>
+                <c:pt idx="547">
+                  <c:v>1960</c:v>
+                </c:pt>
+                <c:pt idx="548">
+                  <c:v>3554</c:v>
+                </c:pt>
+                <c:pt idx="549">
+                  <c:v>3316</c:v>
+                </c:pt>
+                <c:pt idx="550">
+                  <c:v>2990</c:v>
+                </c:pt>
+                <c:pt idx="551">
+                  <c:v>2958</c:v>
+                </c:pt>
+                <c:pt idx="552">
+                  <c:v>3275</c:v>
+                </c:pt>
+                <c:pt idx="553">
+                  <c:v>2682</c:v>
+                </c:pt>
+                <c:pt idx="554">
+                  <c:v>1892</c:v>
+                </c:pt>
+                <c:pt idx="555">
+                  <c:v>3403</c:v>
+                </c:pt>
+                <c:pt idx="556">
+                  <c:v>3257</c:v>
+                </c:pt>
+                <c:pt idx="557">
+                  <c:v>3138</c:v>
+                </c:pt>
+                <c:pt idx="558">
+                  <c:v>3231</c:v>
+                </c:pt>
+                <c:pt idx="559">
+                  <c:v>2830</c:v>
+                </c:pt>
+                <c:pt idx="560">
+                  <c:v>2385</c:v>
+                </c:pt>
+                <c:pt idx="561">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="562">
+                  <c:v>3388</c:v>
+                </c:pt>
+                <c:pt idx="563">
+                  <c:v>3255</c:v>
+                </c:pt>
+                <c:pt idx="564">
+                  <c:v>3289</c:v>
+                </c:pt>
+                <c:pt idx="565">
+                  <c:v>3095</c:v>
+                </c:pt>
+                <c:pt idx="566">
+                  <c:v>3032</c:v>
+                </c:pt>
+                <c:pt idx="567">
+                  <c:v>2499</c:v>
+                </c:pt>
+                <c:pt idx="568">
+                  <c:v>2101</c:v>
+                </c:pt>
+                <c:pt idx="569">
+                  <c:v>3638</c:v>
+                </c:pt>
+                <c:pt idx="570">
+                  <c:v>3488</c:v>
+                </c:pt>
+                <c:pt idx="571">
+                  <c:v>3202</c:v>
+                </c:pt>
+                <c:pt idx="572">
+                  <c:v>3568</c:v>
+                </c:pt>
+                <c:pt idx="573">
+                  <c:v>3338</c:v>
+                </c:pt>
+                <c:pt idx="574">
+                  <c:v>2879</c:v>
+                </c:pt>
+                <c:pt idx="575">
+                  <c:v>2099</c:v>
+                </c:pt>
+                <c:pt idx="576">
+                  <c:v>3879</c:v>
+                </c:pt>
+                <c:pt idx="577">
+                  <c:v>3692</c:v>
+                </c:pt>
+                <c:pt idx="578">
+                  <c:v>3881</c:v>
+                </c:pt>
+                <c:pt idx="579">
+                  <c:v>3904</c:v>
+                </c:pt>
+                <c:pt idx="580">
+                  <c:v>3874</c:v>
+                </c:pt>
+                <c:pt idx="581">
+                  <c:v>3600</c:v>
+                </c:pt>
+                <c:pt idx="582">
+                  <c:v>2694</c:v>
+                </c:pt>
+                <c:pt idx="583">
+                  <c:v>4413</c:v>
+                </c:pt>
+                <c:pt idx="584">
+                  <c:v>4161</c:v>
+                </c:pt>
+                <c:pt idx="585">
+                  <c:v>4013</c:v>
+                </c:pt>
+                <c:pt idx="586">
+                  <c:v>4165</c:v>
+                </c:pt>
+                <c:pt idx="587">
+                  <c:v>4083</c:v>
+                </c:pt>
+                <c:pt idx="588">
+                  <c:v>3384</c:v>
+                </c:pt>
+                <c:pt idx="589">
+                  <c:v>2380</c:v>
+                </c:pt>
+                <c:pt idx="590">
+                  <c:v>4229</c:v>
+                </c:pt>
+                <c:pt idx="591">
+                  <c:v>4171</c:v>
+                </c:pt>
+                <c:pt idx="592">
+                  <c:v>4173</c:v>
+                </c:pt>
+                <c:pt idx="593">
+                  <c:v>4290</c:v>
+                </c:pt>
+                <c:pt idx="594">
+                  <c:v>3964</c:v>
+                </c:pt>
+                <c:pt idx="595">
+                  <c:v>3631</c:v>
+                </c:pt>
+                <c:pt idx="596">
+                  <c:v>2825</c:v>
+                </c:pt>
+                <c:pt idx="597">
+                  <c:v>4909</c:v>
+                </c:pt>
+                <c:pt idx="598">
+                  <c:v>5038</c:v>
+                </c:pt>
+                <c:pt idx="599">
+                  <c:v>2329</c:v>
+                </c:pt>
+                <c:pt idx="600">
+                  <c:v>3757</c:v>
+                </c:pt>
+                <c:pt idx="601">
+                  <c:v>3896</c:v>
+                </c:pt>
+                <c:pt idx="602">
+                  <c:v>3019</c:v>
+                </c:pt>
+                <c:pt idx="603">
+                  <c:v>2181</c:v>
+                </c:pt>
+                <c:pt idx="604">
+                  <c:v>3944</c:v>
+                </c:pt>
+                <c:pt idx="605">
+                  <c:v>3593</c:v>
+                </c:pt>
+                <c:pt idx="606">
+                  <c:v>3624</c:v>
+                </c:pt>
+                <c:pt idx="607">
+                  <c:v>3717</c:v>
+                </c:pt>
+                <c:pt idx="608">
+                  <c:v>3398</c:v>
+                </c:pt>
+                <c:pt idx="609">
+                  <c:v>2942</c:v>
+                </c:pt>
+                <c:pt idx="610">
+                  <c:v>2210</c:v>
+                </c:pt>
+                <c:pt idx="611">
+                  <c:v>3848</c:v>
+                </c:pt>
+                <c:pt idx="612">
+                  <c:v>3551</c:v>
+                </c:pt>
+                <c:pt idx="613">
+                  <c:v>3683</c:v>
+                </c:pt>
+                <c:pt idx="614">
+                  <c:v>3507</c:v>
+                </c:pt>
+                <c:pt idx="615">
+                  <c:v>3546</c:v>
+                </c:pt>
+                <c:pt idx="616">
+                  <c:v>2985</c:v>
+                </c:pt>
+                <c:pt idx="617">
+                  <c:v>2255</c:v>
+                </c:pt>
+                <c:pt idx="618">
+                  <c:v>3933</c:v>
+                </c:pt>
+                <c:pt idx="619">
+                  <c:v>3920</c:v>
+                </c:pt>
+                <c:pt idx="620">
+                  <c:v>3836</c:v>
+                </c:pt>
+                <c:pt idx="621">
+                  <c:v>3712</c:v>
+                </c:pt>
+                <c:pt idx="622">
+                  <c:v>3716</c:v>
+                </c:pt>
+                <c:pt idx="623">
+                  <c:v>3065</c:v>
+                </c:pt>
+                <c:pt idx="624">
+                  <c:v>2674</c:v>
+                </c:pt>
+                <c:pt idx="625">
+                  <c:v>4423</c:v>
+                </c:pt>
+                <c:pt idx="626">
+                  <c:v>4603</c:v>
+                </c:pt>
+                <c:pt idx="627">
+                  <c:v>4605</c:v>
+                </c:pt>
+                <c:pt idx="628">
+                  <c:v>5016</c:v>
+                </c:pt>
+                <c:pt idx="629">
+                  <c:v>5635</c:v>
+                </c:pt>
+                <c:pt idx="630">
+                  <c:v>2759</c:v>
+                </c:pt>
+                <c:pt idx="631">
+                  <c:v>2062</c:v>
+                </c:pt>
+                <c:pt idx="632">
+                  <c:v>4212</c:v>
+                </c:pt>
+                <c:pt idx="633">
+                  <c:v>4250</c:v>
+                </c:pt>
+                <c:pt idx="634">
+                  <c:v>3989</c:v>
+                </c:pt>
+                <c:pt idx="635">
+                  <c:v>4367</c:v>
+                </c:pt>
+                <c:pt idx="636">
+                  <c:v>4047</c:v>
+                </c:pt>
+                <c:pt idx="637">
+                  <c:v>3515</c:v>
+                </c:pt>
+                <c:pt idx="638">
+                  <c:v>2958</c:v>
+                </c:pt>
+                <c:pt idx="639">
+                  <c:v>4450</c:v>
+                </c:pt>
+                <c:pt idx="640">
+                  <c:v>4182</c:v>
+                </c:pt>
+                <c:pt idx="641">
+                  <c:v>3928</c:v>
+                </c:pt>
+                <c:pt idx="642">
+                  <c:v>3726</c:v>
+                </c:pt>
+                <c:pt idx="643">
+                  <c:v>3852</c:v>
+                </c:pt>
+                <c:pt idx="644">
+                  <c:v>3717</c:v>
+                </c:pt>
+                <c:pt idx="645">
+                  <c:v>3301</c:v>
+                </c:pt>
+                <c:pt idx="646">
+                  <c:v>4287</c:v>
+                </c:pt>
+                <c:pt idx="647">
+                  <c:v>4159</c:v>
+                </c:pt>
+                <c:pt idx="648">
+                  <c:v>3882</c:v>
+                </c:pt>
+                <c:pt idx="649">
+                  <c:v>4069</c:v>
+                </c:pt>
+                <c:pt idx="650">
+                  <c:v>4037</c:v>
+                </c:pt>
+                <c:pt idx="651">
+                  <c:v>3383</c:v>
+                </c:pt>
+                <c:pt idx="652">
+                  <c:v>2929</c:v>
+                </c:pt>
+                <c:pt idx="653">
+                  <c:v>4309</c:v>
+                </c:pt>
+                <c:pt idx="654">
+                  <c:v>4073</c:v>
+                </c:pt>
+                <c:pt idx="655">
+                  <c:v>3711</c:v>
+                </c:pt>
+                <c:pt idx="656">
+                  <c:v>3765</c:v>
+                </c:pt>
+                <c:pt idx="657">
+                  <c:v>3704</c:v>
+                </c:pt>
+                <c:pt idx="658">
+                  <c:v>3393</c:v>
+                </c:pt>
+                <c:pt idx="659">
+                  <c:v>2791</c:v>
+                </c:pt>
+                <c:pt idx="660">
+                  <c:v>3920</c:v>
+                </c:pt>
+                <c:pt idx="661">
+                  <c:v>3384</c:v>
+                </c:pt>
+                <c:pt idx="662">
+                  <c:v>3034</c:v>
+                </c:pt>
+                <c:pt idx="663">
+                  <c:v>3207</c:v>
+                </c:pt>
+                <c:pt idx="664">
+                  <c:v>2944</c:v>
+                </c:pt>
+                <c:pt idx="665">
+                  <c:v>2437</c:v>
+                </c:pt>
+                <c:pt idx="666">
+                  <c:v>1955</c:v>
+                </c:pt>
+                <c:pt idx="667">
+                  <c:v>3165</c:v>
+                </c:pt>
+                <c:pt idx="668">
+                  <c:v>2573</c:v>
+                </c:pt>
+                <c:pt idx="669">
+                  <c:v>3410</c:v>
+                </c:pt>
+                <c:pt idx="670">
+                  <c:v>3224</c:v>
+                </c:pt>
+                <c:pt idx="671">
+                  <c:v>2988</c:v>
+                </c:pt>
+                <c:pt idx="672">
+                  <c:v>2728</c:v>
+                </c:pt>
+                <c:pt idx="673">
+                  <c:v>2133</c:v>
+                </c:pt>
+                <c:pt idx="674">
+                  <c:v>2658</c:v>
+                </c:pt>
+                <c:pt idx="675">
+                  <c:v>2531</c:v>
+                </c:pt>
+                <c:pt idx="676">
+                  <c:v>2983</c:v>
+                </c:pt>
+                <c:pt idx="677">
+                  <c:v>2130</c:v>
+                </c:pt>
+                <c:pt idx="678">
+                  <c:v>1378</c:v>
+                </c:pt>
+                <c:pt idx="679">
+                  <c:v>2101</c:v>
+                </c:pt>
+                <c:pt idx="680">
+                  <c:v>1985</c:v>
+                </c:pt>
+                <c:pt idx="681">
+                  <c:v>2225</c:v>
+                </c:pt>
+                <c:pt idx="682">
+                  <c:v>2126</c:v>
+                </c:pt>
+                <c:pt idx="683">
+                  <c:v>2070</c:v>
+                </c:pt>
+                <c:pt idx="684">
+                  <c:v>1302</c:v>
+                </c:pt>
+                <c:pt idx="685">
+                  <c:v>914</c:v>
+                </c:pt>
+                <c:pt idx="686">
+                  <c:v>1890</c:v>
+                </c:pt>
+                <c:pt idx="687">
+                  <c:v>1827</c:v>
+                </c:pt>
+                <c:pt idx="688">
+                  <c:v>1858</c:v>
+                </c:pt>
+                <c:pt idx="689">
+                  <c:v>2041</c:v>
+                </c:pt>
+                <c:pt idx="690">
+                  <c:v>1921</c:v>
+                </c:pt>
+                <c:pt idx="691">
+                  <c:v>1147</c:v>
+                </c:pt>
+                <c:pt idx="692">
+                  <c:v>669</c:v>
+                </c:pt>
+                <c:pt idx="693">
+                  <c:v>1541</c:v>
+                </c:pt>
+                <c:pt idx="694">
+                  <c:v>1317</c:v>
+                </c:pt>
+                <c:pt idx="695">
+                  <c:v>1701</c:v>
+                </c:pt>
+                <c:pt idx="696">
+                  <c:v>1581</c:v>
+                </c:pt>
+                <c:pt idx="697">
+                  <c:v>1548</c:v>
+                </c:pt>
+                <c:pt idx="698">
+                  <c:v>873</c:v>
+                </c:pt>
+                <c:pt idx="699">
+                  <c:v>690</c:v>
+                </c:pt>
+                <c:pt idx="700">
+                  <c:v>1582</c:v>
+                </c:pt>
+                <c:pt idx="701">
+                  <c:v>1533</c:v>
+                </c:pt>
+                <c:pt idx="702">
+                  <c:v>1720</c:v>
+                </c:pt>
+                <c:pt idx="703">
+                  <c:v>1536</c:v>
+                </c:pt>
+                <c:pt idx="704">
+                  <c:v>1752</c:v>
+                </c:pt>
+                <c:pt idx="705">
+                  <c:v>659</c:v>
+                </c:pt>
+                <c:pt idx="706">
+                  <c:v>545</c:v>
+                </c:pt>
+                <c:pt idx="707">
+                  <c:v>1594</c:v>
+                </c:pt>
+                <c:pt idx="708">
+                  <c:v>1569</c:v>
+                </c:pt>
+                <c:pt idx="709">
+                  <c:v>1737</c:v>
+                </c:pt>
+                <c:pt idx="710">
+                  <c:v>1059</c:v>
+                </c:pt>
+                <c:pt idx="711">
+                  <c:v>1026</c:v>
+                </c:pt>
+                <c:pt idx="712">
+                  <c:v>668</c:v>
+                </c:pt>
+                <c:pt idx="713">
+                  <c:v>583</c:v>
+                </c:pt>
+                <c:pt idx="714">
+                  <c:v>1745</c:v>
+                </c:pt>
+                <c:pt idx="715">
+                  <c:v>1691</c:v>
+                </c:pt>
+                <c:pt idx="716">
+                  <c:v>1878</c:v>
+                </c:pt>
+                <c:pt idx="717">
+                  <c:v>1722</c:v>
+                </c:pt>
+                <c:pt idx="718">
+                  <c:v>861</c:v>
+                </c:pt>
+                <c:pt idx="719">
+                  <c:v>744</c:v>
+                </c:pt>
+                <c:pt idx="720">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="721">
+                  <c:v>1779</c:v>
+                </c:pt>
+                <c:pt idx="722">
+                  <c:v>1708</c:v>
+                </c:pt>
+                <c:pt idx="723">
+                  <c:v>1870</c:v>
+                </c:pt>
+                <c:pt idx="724">
+                  <c:v>1723</c:v>
+                </c:pt>
+                <c:pt idx="725">
+                  <c:v>1773</c:v>
+                </c:pt>
+                <c:pt idx="726">
+                  <c:v>804</c:v>
+                </c:pt>
+                <c:pt idx="727">
+                  <c:v>532</c:v>
+                </c:pt>
+                <c:pt idx="728">
+                  <c:v>1560</c:v>
+                </c:pt>
+                <c:pt idx="729">
+                  <c:v>1519</c:v>
+                </c:pt>
+                <c:pt idx="730">
+                  <c:v>1603</c:v>
+                </c:pt>
+                <c:pt idx="731">
+                  <c:v>1677</c:v>
+                </c:pt>
+                <c:pt idx="732">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="733">
+                  <c:v>880</c:v>
+                </c:pt>
+                <c:pt idx="734">
+                  <c:v>758</c:v>
+                </c:pt>
+                <c:pt idx="735">
+                  <c:v>1288</c:v>
+                </c:pt>
+                <c:pt idx="736">
+                  <c:v>926</c:v>
+                </c:pt>
+                <c:pt idx="737">
+                  <c:v>1968</c:v>
+                </c:pt>
+                <c:pt idx="738">
+                  <c:v>1856</c:v>
+                </c:pt>
+                <c:pt idx="739">
+                  <c:v>1934</c:v>
+                </c:pt>
+                <c:pt idx="740">
+                  <c:v>771</c:v>
+                </c:pt>
+                <c:pt idx="741">
+                  <c:v>511</c:v>
+                </c:pt>
+                <c:pt idx="742">
+                  <c:v>731</c:v>
+                </c:pt>
+                <c:pt idx="743">
+                  <c:v>680</c:v>
+                </c:pt>
+                <c:pt idx="744">
+                  <c:v>1978</c:v>
+                </c:pt>
+                <c:pt idx="745">
+                  <c:v>1975</c:v>
+                </c:pt>
+                <c:pt idx="746">
+                  <c:v>2028</c:v>
+                </c:pt>
+                <c:pt idx="747">
+                  <c:v>1123</c:v>
+                </c:pt>
+                <c:pt idx="748">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="749">
+                  <c:v>2442</c:v>
+                </c:pt>
+                <c:pt idx="750">
+                  <c:v>2495</c:v>
+                </c:pt>
+                <c:pt idx="751">
+                  <c:v>2405</c:v>
+                </c:pt>
+                <c:pt idx="752">
+                  <c:v>2249</c:v>
+                </c:pt>
+                <c:pt idx="753">
+                  <c:v>2502</c:v>
+                </c:pt>
+                <c:pt idx="754">
+                  <c:v>1892</c:v>
+                </c:pt>
+                <c:pt idx="755">
+                  <c:v>1424</c:v>
+                </c:pt>
+                <c:pt idx="756">
+                  <c:v>3151</c:v>
+                </c:pt>
+                <c:pt idx="757">
+                  <c:v>2516</c:v>
+                </c:pt>
+                <c:pt idx="758">
+                  <c:v>2363</c:v>
+                </c:pt>
+                <c:pt idx="759">
+                  <c:v>2507</c:v>
+                </c:pt>
+                <c:pt idx="760">
+                  <c:v>2441</c:v>
+                </c:pt>
+                <c:pt idx="761">
+                  <c:v>1943</c:v>
+                </c:pt>
+                <c:pt idx="762">
+                  <c:v>1462</c:v>
+                </c:pt>
+                <c:pt idx="763">
+                  <c:v>2663</c:v>
+                </c:pt>
+                <c:pt idx="764">
+                  <c:v>2449</c:v>
+                </c:pt>
+                <c:pt idx="765">
+                  <c:v>2689</c:v>
+                </c:pt>
+                <c:pt idx="766">
+                  <c:v>2572</c:v>
+                </c:pt>
+                <c:pt idx="767">
+                  <c:v>2550</c:v>
+                </c:pt>
+                <c:pt idx="768">
+                  <c:v>1679</c:v>
+                </c:pt>
+                <c:pt idx="769">
+                  <c:v>1640</c:v>
+                </c:pt>
+                <c:pt idx="770">
+                  <c:v>3155</c:v>
+                </c:pt>
+                <c:pt idx="771">
+                  <c:v>2735</c:v>
+                </c:pt>
+                <c:pt idx="772">
+                  <c:v>2752</c:v>
+                </c:pt>
+                <c:pt idx="773">
+                  <c:v>2844</c:v>
+                </c:pt>
+                <c:pt idx="774">
+                  <c:v>2706</c:v>
+                </c:pt>
+                <c:pt idx="775">
+                  <c:v>1574</c:v>
+                </c:pt>
+                <c:pt idx="776">
+                  <c:v>1317</c:v>
+                </c:pt>
+                <c:pt idx="777">
+                  <c:v>2939</c:v>
+                </c:pt>
+                <c:pt idx="778">
+                  <c:v>2925</c:v>
+                </c:pt>
+                <c:pt idx="779">
+                  <c:v>3236</c:v>
+                </c:pt>
+                <c:pt idx="780">
+                  <c:v>2959</c:v>
+                </c:pt>
+                <c:pt idx="781">
+                  <c:v>2755</c:v>
+                </c:pt>
+                <c:pt idx="782">
+                  <c:v>2257</c:v>
+                </c:pt>
+                <c:pt idx="783">
+                  <c:v>1659</c:v>
+                </c:pt>
+                <c:pt idx="784">
+                  <c:v>3272</c:v>
+                </c:pt>
+                <c:pt idx="785">
+                  <c:v>2776</c:v>
+                </c:pt>
+                <c:pt idx="786">
+                  <c:v>3138</c:v>
+                </c:pt>
+                <c:pt idx="787">
+                  <c:v>2908</c:v>
+                </c:pt>
+                <c:pt idx="788">
+                  <c:v>3043</c:v>
+                </c:pt>
+                <c:pt idx="789">
+                  <c:v>2356</c:v>
+                </c:pt>
+                <c:pt idx="790">
+                  <c:v>1747</c:v>
+                </c:pt>
+                <c:pt idx="791">
+                  <c:v>3078</c:v>
+                </c:pt>
+                <c:pt idx="792">
+                  <c:v>2998</c:v>
+                </c:pt>
+                <c:pt idx="793">
+                  <c:v>2553</c:v>
+                </c:pt>
+                <c:pt idx="794">
+                  <c:v>3141</c:v>
+                </c:pt>
+                <c:pt idx="795">
+                  <c:v>3187</c:v>
+                </c:pt>
+                <c:pt idx="796">
+                  <c:v>2318</c:v>
+                </c:pt>
+                <c:pt idx="797">
+                  <c:v>1659</c:v>
+                </c:pt>
+                <c:pt idx="798">
+                  <c:v>3005</c:v>
+                </c:pt>
+                <c:pt idx="799">
+                  <c:v>2818</c:v>
+                </c:pt>
+                <c:pt idx="800">
+                  <c:v>2932</c:v>
+                </c:pt>
+                <c:pt idx="801">
+                  <c:v>3260</c:v>
+                </c:pt>
+                <c:pt idx="802">
+                  <c:v>2876</c:v>
+                </c:pt>
+                <c:pt idx="803">
+                  <c:v>2334</c:v>
+                </c:pt>
+                <c:pt idx="804">
+                  <c:v>1815</c:v>
+                </c:pt>
+                <c:pt idx="805">
+                  <c:v>2990</c:v>
+                </c:pt>
+                <c:pt idx="806">
+                  <c:v>3172</c:v>
+                </c:pt>
+                <c:pt idx="807">
+                  <c:v>3275</c:v>
+                </c:pt>
+                <c:pt idx="808">
+                  <c:v>2660</c:v>
+                </c:pt>
+                <c:pt idx="809">
+                  <c:v>1072</c:v>
+                </c:pt>
+                <c:pt idx="810">
+                  <c:v>1409</c:v>
+                </c:pt>
+                <c:pt idx="811">
+                  <c:v>1326</c:v>
+                </c:pt>
+                <c:pt idx="812">
+                  <c:v>1535</c:v>
+                </c:pt>
+                <c:pt idx="813">
+                  <c:v>3100</c:v>
+                </c:pt>
+                <c:pt idx="814">
+                  <c:v>2823</c:v>
+                </c:pt>
+                <c:pt idx="815">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="816">
+                  <c:v>2895</c:v>
+                </c:pt>
+                <c:pt idx="817">
+                  <c:v>2051</c:v>
+                </c:pt>
+                <c:pt idx="818">
+                  <c:v>1633</c:v>
+                </c:pt>
+                <c:pt idx="819">
+                  <c:v>2682</c:v>
+                </c:pt>
+                <c:pt idx="820">
+                  <c:v>2599</c:v>
+                </c:pt>
+                <c:pt idx="821">
+                  <c:v>2697</c:v>
+                </c:pt>
+                <c:pt idx="822">
+                  <c:v>2539</c:v>
+                </c:pt>
+                <c:pt idx="823">
+                  <c:v>2636</c:v>
+                </c:pt>
+                <c:pt idx="824">
+                  <c:v>2050</c:v>
+                </c:pt>
+                <c:pt idx="825">
+                  <c:v>1609</c:v>
+                </c:pt>
+                <c:pt idx="826">
+                  <c:v>2692</c:v>
+                </c:pt>
+                <c:pt idx="827">
+                  <c:v>2731</c:v>
+                </c:pt>
+                <c:pt idx="828">
+                  <c:v>2764</c:v>
+                </c:pt>
+                <c:pt idx="829">
+                  <c:v>2626</c:v>
+                </c:pt>
+                <c:pt idx="830">
+                  <c:v>2485</c:v>
+                </c:pt>
+                <c:pt idx="831">
+                  <c:v>2055</c:v>
+                </c:pt>
+                <c:pt idx="832">
+                  <c:v>1553</c:v>
+                </c:pt>
+                <c:pt idx="833">
+                  <c:v>2669</c:v>
+                </c:pt>
+                <c:pt idx="834">
+                  <c:v>2655</c:v>
+                </c:pt>
+                <c:pt idx="835">
+                  <c:v>2779</c:v>
+                </c:pt>
+                <c:pt idx="836">
+                  <c:v>2706</c:v>
+                </c:pt>
+                <c:pt idx="837">
+                  <c:v>2811</c:v>
+                </c:pt>
+                <c:pt idx="838">
+                  <c:v>2140</c:v>
+                </c:pt>
+                <c:pt idx="839">
+                  <c:v>1470</c:v>
+                </c:pt>
+                <c:pt idx="840">
+                  <c:v>2949</c:v>
+                </c:pt>
+                <c:pt idx="841">
+                  <c:v>2971</c:v>
+                </c:pt>
+                <c:pt idx="842">
+                  <c:v>2849</c:v>
+                </c:pt>
+                <c:pt idx="843">
+                  <c:v>2648</c:v>
+                </c:pt>
+                <c:pt idx="844">
+                  <c:v>2713</c:v>
+                </c:pt>
+                <c:pt idx="845">
+                  <c:v>2051</c:v>
+                </c:pt>
+                <c:pt idx="846">
+                  <c:v>1577</c:v>
+                </c:pt>
+                <c:pt idx="847">
+                  <c:v>2794</c:v>
+                </c:pt>
+                <c:pt idx="848">
+                  <c:v>2658</c:v>
+                </c:pt>
+                <c:pt idx="849">
+                  <c:v>2669</c:v>
+                </c:pt>
+                <c:pt idx="850">
+                  <c:v>2813</c:v>
+                </c:pt>
+                <c:pt idx="851">
+                  <c:v>2820</c:v>
+                </c:pt>
+                <c:pt idx="852">
+                  <c:v>2152</c:v>
+                </c:pt>
+                <c:pt idx="853">
+                  <c:v>1538</c:v>
+                </c:pt>
+                <c:pt idx="854">
+                  <c:v>2725</c:v>
+                </c:pt>
+                <c:pt idx="855">
+                  <c:v>2791</c:v>
+                </c:pt>
+                <c:pt idx="856">
+                  <c:v>2762</c:v>
+                </c:pt>
+                <c:pt idx="857">
+                  <c:v>2601</c:v>
+                </c:pt>
+                <c:pt idx="858">
+                  <c:v>2903</c:v>
+                </c:pt>
+                <c:pt idx="859">
+                  <c:v>1970</c:v>
+                </c:pt>
+                <c:pt idx="860">
+                  <c:v>1521</c:v>
+                </c:pt>
+                <c:pt idx="861">
+                  <c:v>2584</c:v>
+                </c:pt>
+                <c:pt idx="862">
+                  <c:v>2470</c:v>
+                </c:pt>
+                <c:pt idx="863">
+                  <c:v>2478</c:v>
+                </c:pt>
+                <c:pt idx="864">
+                  <c:v>2456</c:v>
+                </c:pt>
+                <c:pt idx="865">
+                  <c:v>2519</c:v>
+                </c:pt>
+                <c:pt idx="866">
+                  <c:v>1730</c:v>
+                </c:pt>
+                <c:pt idx="867">
+                  <c:v>1336</c:v>
+                </c:pt>
+                <c:pt idx="868">
+                  <c:v>2810</c:v>
+                </c:pt>
+                <c:pt idx="869">
+                  <c:v>2762</c:v>
+                </c:pt>
+                <c:pt idx="870">
+                  <c:v>2660</c:v>
+                </c:pt>
+                <c:pt idx="871">
+                  <c:v>2556</c:v>
+                </c:pt>
+                <c:pt idx="872">
+                  <c:v>2308</c:v>
+                </c:pt>
+                <c:pt idx="873">
+                  <c:v>1859</c:v>
+                </c:pt>
+                <c:pt idx="874">
+                  <c:v>1263</c:v>
+                </c:pt>
+                <c:pt idx="875">
+                  <c:v>2398</c:v>
+                </c:pt>
+                <c:pt idx="876">
+                  <c:v>2262</c:v>
+                </c:pt>
+                <c:pt idx="877">
+                  <c:v>2726</c:v>
+                </c:pt>
+                <c:pt idx="878">
+                  <c:v>2182</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:hiLowLines>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:hiLowLines>
+        <c:marker val="0"/>
+        <c:axId val="41192911"/>
+        <c:axId val="4278229"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="41192911"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="4278229"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="4278229"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="41192911"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:latin typeface="Arial"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>36360</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>36000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>45360</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>120960</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="0" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="1837080" y="36000"/>
+        <a:ext cx="5759640" cy="3239640"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -15978,11 +18943,11 @@
   </sheetPr>
   <dimension ref="A1:N880"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="0" width="12.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="7" style="0" width="7.57"/>
@@ -30070,6 +33035,4539 @@
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
+  </headerFooter>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:F880"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="250" zoomScaleNormal="250" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="5.9"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="n">
+        <v>4321</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="n">
+        <v>3491</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="n">
+        <v>2794</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="n">
+        <v>1924</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="32" t="n">
+        <v>3716</v>
+      </c>
+      <c r="B6" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" s="33" t="n">
+        <f aca="false">A5</f>
+        <v>1924</v>
+      </c>
+      <c r="D6" s="33" t="n">
+        <f aca="false">A4</f>
+        <v>2794</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="n">
+        <v>3496</v>
+      </c>
+      <c r="C7" s="33" t="n">
+        <f aca="false">A6</f>
+        <v>3716</v>
+      </c>
+      <c r="D7" s="33" t="n">
+        <f aca="false">A5</f>
+        <v>1924</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="n">
+        <v>3502</v>
+      </c>
+      <c r="C8" s="33" t="n">
+        <f aca="false">A7</f>
+        <v>3496</v>
+      </c>
+      <c r="D8" s="33" t="n">
+        <f aca="false">A6</f>
+        <v>3716</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="n">
+        <v>3226</v>
+      </c>
+      <c r="C9" s="33" t="n">
+        <f aca="false">A8</f>
+        <v>3502</v>
+      </c>
+      <c r="D9" s="33" t="n">
+        <f aca="false">A7</f>
+        <v>3496</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="n">
+        <v>3012</v>
+      </c>
+      <c r="C10" s="33" t="n">
+        <f aca="false">A9</f>
+        <v>3226</v>
+      </c>
+      <c r="D10" s="33" t="n">
+        <f aca="false">A8</f>
+        <v>3502</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="n">
+        <v>2456</v>
+      </c>
+      <c r="C11" s="33" t="n">
+        <f aca="false">A10</f>
+        <v>3012</v>
+      </c>
+      <c r="D11" s="33" t="n">
+        <f aca="false">A9</f>
+        <v>3226</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="n">
+        <v>1910</v>
+      </c>
+      <c r="C12" s="33" t="n">
+        <f aca="false">A11</f>
+        <v>2456</v>
+      </c>
+      <c r="D12" s="33" t="n">
+        <f aca="false">A10</f>
+        <v>3012</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="n">
+        <v>3505</v>
+      </c>
+      <c r="C13" s="33" t="n">
+        <f aca="false">A12</f>
+        <v>1910</v>
+      </c>
+      <c r="D13" s="33" t="n">
+        <f aca="false">A11</f>
+        <v>2456</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="n">
+        <v>2915</v>
+      </c>
+      <c r="C14" s="33" t="n">
+        <f aca="false">A13</f>
+        <v>3505</v>
+      </c>
+      <c r="D14" s="33" t="n">
+        <f aca="false">A12</f>
+        <v>1910</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="n">
+        <v>3462</v>
+      </c>
+      <c r="C15" s="33" t="n">
+        <f aca="false">A14</f>
+        <v>2915</v>
+      </c>
+      <c r="D15" s="33" t="n">
+        <f aca="false">A13</f>
+        <v>3505</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="n">
+        <v>3281</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="n">
+        <v>3345</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="n">
+        <v>2497</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="n">
+        <v>1786</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="n">
+        <v>3335</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="n">
+        <v>3041</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="n">
+        <v>2930</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="n">
+        <v>3043</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="n">
+        <v>3275</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="n">
+        <v>2106</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="n">
+        <v>1501</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="n">
+        <v>3048</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="n">
+        <v>3003</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="n">
+        <v>2874</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="1" t="n">
+        <v>3088</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="1" t="n">
+        <v>2782</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="1" t="n">
+        <v>2155</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="1" t="n">
+        <v>1557</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="1" t="n">
+        <v>3122</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="1" t="n">
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="1" t="n">
+        <v>3401</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="1" t="n">
+        <v>3170</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="1" t="n">
+        <v>2966</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="1" t="n">
+        <v>2254</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="1" t="n">
+        <v>1689</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="1" t="n">
+        <v>3085</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="1" t="n">
+        <v>2636</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="1" t="n">
+        <v>2844</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="1" t="n">
+        <v>3197</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="1" t="n">
+        <v>2912</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="1" t="n">
+        <v>2036</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="1" t="n">
+        <v>1509</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="1" t="n">
+        <v>3136</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="1" t="n">
+        <v>3124</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="1" t="n">
+        <v>2842</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="1" t="n">
+        <v>3190</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="1" t="n">
+        <v>3221</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="1" t="n">
+        <v>1829</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="1" t="n">
+        <v>1443</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="1" t="n">
+        <v>3119</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="1" t="n">
+        <v>2771</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="1" t="n">
+        <v>2969</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="1" t="n">
+        <v>3048</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="1" t="n">
+        <v>2939</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="1" t="n">
+        <v>2062</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="1" t="n">
+        <v>1773</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="1" t="n">
+        <v>3442</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="1" t="n">
+        <v>2961</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="1" t="n">
+        <v>3226</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="1" t="n">
+        <v>3085</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="1" t="n">
+        <v>3114</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="1" t="n">
+        <v>2230</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="1" t="n">
+        <v>1781</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="1" t="n">
+        <v>3573</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="1" t="n">
+        <v>3571</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="1" t="n">
+        <v>3547</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="1" t="n">
+        <v>3192</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="1" t="n">
+        <v>3190</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="1" t="n">
+        <v>2339</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="1" t="n">
+        <v>1737</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="1" t="n">
+        <v>3422</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="1" t="n">
+        <v>3172</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="1" t="n">
+        <v>3066</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="1" t="n">
+        <v>2881</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="1" t="n">
+        <v>3122</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="1" t="n">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="1" t="n">
+        <v>1676</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="1" t="n">
+        <v>2305</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="1" t="n">
+        <v>3315</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="1" t="n">
+        <v>3299</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="1" t="n">
+        <v>3384</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="1" t="n">
+        <v>3264</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="1" t="n">
+        <v>2434</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="1" t="n">
+        <v>1742</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="1" t="n">
+        <v>3396</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="1" t="n">
+        <v>2606</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="1" t="n">
+        <v>3488</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="1" t="n">
+        <v>3226</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="1" t="n">
+        <v>3342</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="1" t="n">
+        <v>3697</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="1" t="n">
+        <v>3153</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="1" t="n">
+        <v>2318</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="1" t="n">
+        <v>4250</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="1" t="n">
+        <v>3830</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="1" t="n">
+        <v>4131</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="1" t="n">
+        <v>4680</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="1" t="n">
+        <v>4136</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="1" t="n">
+        <v>3306</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="1" t="n">
+        <v>2590</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="1" t="n">
+        <v>3355</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="1" t="n">
+        <v>1290</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="1" t="n">
+        <v>1953</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="1" t="n">
+        <v>1977</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="1" t="n">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="1" t="n">
+        <v>2340</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="1" t="n">
+        <v>2354</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="1" t="n">
+        <v>4732</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="1" t="n">
+        <v>4399</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="1" t="n">
+        <v>4017</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="1" t="n">
+        <v>3425</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="1" t="n">
+        <v>3891</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="1" t="n">
+        <v>3184</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="1" t="n">
+        <v>2322</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="1" t="n">
+        <v>4457</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="1" t="n">
+        <v>4022</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A121" s="1" t="n">
+        <v>4335</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A122" s="1" t="n">
+        <v>3867</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A123" s="1" t="n">
+        <v>3780</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A124" s="1" t="n">
+        <v>2738</v>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A125" s="1" t="n">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A126" s="1" t="n">
+        <v>3908</v>
+      </c>
+    </row>
+    <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A127" s="1" t="n">
+        <v>3750</v>
+      </c>
+    </row>
+    <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A128" s="1" t="n">
+        <v>3777</v>
+      </c>
+    </row>
+    <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A129" s="1" t="n">
+        <v>3318</v>
+      </c>
+    </row>
+    <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A130" s="1" t="n">
+        <v>3413</v>
+      </c>
+    </row>
+    <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A131" s="1" t="n">
+        <v>2667</v>
+      </c>
+    </row>
+    <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A132" s="1" t="n">
+        <v>1866</v>
+      </c>
+    </row>
+    <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A133" s="1" t="n">
+        <v>3724</v>
+      </c>
+    </row>
+    <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A134" s="1" t="n">
+        <v>3313</v>
+      </c>
+    </row>
+    <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A135" s="1" t="n">
+        <v>3666</v>
+      </c>
+    </row>
+    <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A136" s="1" t="n">
+        <v>3576</v>
+      </c>
+    </row>
+    <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A137" s="1" t="n">
+        <v>3223</v>
+      </c>
+    </row>
+    <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A138" s="1" t="n">
+        <v>2397</v>
+      </c>
+    </row>
+    <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A139" s="1" t="n">
+        <v>1910</v>
+      </c>
+    </row>
+    <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A140" s="1" t="n">
+        <v>3675</v>
+      </c>
+    </row>
+    <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A141" s="1" t="n">
+        <v>3202</v>
+      </c>
+    </row>
+    <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A142" s="1" t="n">
+        <v>3325</v>
+      </c>
+    </row>
+    <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A143" s="1" t="n">
+        <v>3279</v>
+      </c>
+    </row>
+    <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A144" s="1" t="n">
+        <v>3253</v>
+      </c>
+    </row>
+    <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A145" s="1" t="n">
+        <v>2524</v>
+      </c>
+    </row>
+    <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A146" s="1" t="n">
+        <v>1875</v>
+      </c>
+    </row>
+    <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A147" s="1" t="n">
+        <v>3644</v>
+      </c>
+    </row>
+    <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A148" s="1" t="n">
+        <v>3252</v>
+      </c>
+    </row>
+    <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A149" s="1" t="n">
+        <v>3236</v>
+      </c>
+    </row>
+    <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A150" s="1" t="n">
+        <v>3267</v>
+      </c>
+    </row>
+    <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A151" s="1" t="n">
+        <v>3350</v>
+      </c>
+    </row>
+    <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A152" s="1" t="n">
+        <v>2601</v>
+      </c>
+    </row>
+    <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A153" s="1" t="n">
+        <v>1681</v>
+      </c>
+    </row>
+    <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A154" s="1" t="n">
+        <v>3631</v>
+      </c>
+    </row>
+    <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A155" s="1" t="n">
+        <v>3233</v>
+      </c>
+    </row>
+    <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A156" s="1" t="n">
+        <v>3080</v>
+      </c>
+    </row>
+    <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A157" s="1" t="n">
+        <v>2922</v>
+      </c>
+    </row>
+    <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A158" s="1" t="n">
+        <v>3304</v>
+      </c>
+    </row>
+    <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A159" s="1" t="n">
+        <v>2563</v>
+      </c>
+    </row>
+    <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A160" s="1" t="n">
+        <v>1890</v>
+      </c>
+    </row>
+    <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A161" s="1" t="n">
+        <v>3677</v>
+      </c>
+    </row>
+    <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A162" s="1" t="n">
+        <v>3464</v>
+      </c>
+    </row>
+    <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A163" s="1" t="n">
+        <v>3289</v>
+      </c>
+    </row>
+    <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A164" s="1" t="n">
+        <v>3325</v>
+      </c>
+    </row>
+    <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A165" s="1" t="n">
+        <v>3602</v>
+      </c>
+    </row>
+    <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A166" s="1" t="n">
+        <v>2463</v>
+      </c>
+    </row>
+    <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A167" s="1" t="n">
+        <v>1864</v>
+      </c>
+    </row>
+    <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A168" s="1" t="n">
+        <v>3697</v>
+      </c>
+    </row>
+    <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A169" s="1" t="n">
+        <v>3303</v>
+      </c>
+    </row>
+    <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A170" s="1" t="n">
+        <v>3182</v>
+      </c>
+    </row>
+    <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A171" s="1" t="n">
+        <v>3148</v>
+      </c>
+    </row>
+    <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A172" s="1" t="n">
+        <v>3172</v>
+      </c>
+    </row>
+    <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A173" s="1" t="n">
+        <v>2437</v>
+      </c>
+    </row>
+    <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A174" s="1" t="n">
+        <v>1740</v>
+      </c>
+    </row>
+    <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A175" s="1" t="n">
+        <v>2682</v>
+      </c>
+    </row>
+    <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A176" s="1" t="n">
+        <v>3612</v>
+      </c>
+    </row>
+    <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A177" s="1" t="n">
+        <v>3354</v>
+      </c>
+    </row>
+    <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A178" s="1" t="n">
+        <v>3309</v>
+      </c>
+    </row>
+    <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A179" s="1" t="n">
+        <v>3129</v>
+      </c>
+    </row>
+    <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A180" s="1" t="n">
+        <v>2725</v>
+      </c>
+    </row>
+    <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A181" s="1" t="n">
+        <v>1898</v>
+      </c>
+    </row>
+    <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A182" s="1" t="n">
+        <v>3680</v>
+      </c>
+    </row>
+    <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A183" s="1" t="n">
+        <v>3260</v>
+      </c>
+    </row>
+    <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A184" s="1" t="n">
+        <v>3270</v>
+      </c>
+    </row>
+    <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A185" s="1" t="n">
+        <v>3315</v>
+      </c>
+    </row>
+    <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A186" s="1" t="n">
+        <v>3126</v>
+      </c>
+    </row>
+    <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A187" s="1" t="n">
+        <v>2587</v>
+      </c>
+    </row>
+    <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A188" s="1" t="n">
+        <v>1864</v>
+      </c>
+    </row>
+    <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A189" s="1" t="n">
+        <v>3451</v>
+      </c>
+    </row>
+    <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A190" s="1" t="n">
+        <v>3638</v>
+      </c>
+    </row>
+    <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A191" s="1" t="n">
+        <v>3133</v>
+      </c>
+    </row>
+    <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A192" s="1" t="n">
+        <v>3289</v>
+      </c>
+    </row>
+    <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A193" s="1" t="n">
+        <v>3253</v>
+      </c>
+    </row>
+    <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A194" s="1" t="n">
+        <v>2601</v>
+      </c>
+    </row>
+    <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A195" s="1" t="n">
+        <v>2123</v>
+      </c>
+    </row>
+    <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A196" s="1" t="n">
+        <v>4088</v>
+      </c>
+    </row>
+    <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A197" s="1" t="n">
+        <v>4063</v>
+      </c>
+    </row>
+    <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A198" s="1" t="n">
+        <v>4902</v>
+      </c>
+    </row>
+    <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A199" s="1" t="n">
+        <v>4437</v>
+      </c>
+    </row>
+    <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A200" s="1" t="n">
+        <v>3529</v>
+      </c>
+    </row>
+    <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A201" s="1" t="n">
+        <v>2708</v>
+      </c>
+    </row>
+    <row r="202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A202" s="1" t="n">
+        <v>4423</v>
+      </c>
+    </row>
+    <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A203" s="1" t="n">
+        <v>4447</v>
+      </c>
+    </row>
+    <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A204" s="1" t="n">
+        <v>4363</v>
+      </c>
+    </row>
+    <row r="205" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A205" s="1" t="n">
+        <v>3933</v>
+      </c>
+    </row>
+    <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A206" s="1" t="n">
+        <v>4391</v>
+      </c>
+    </row>
+    <row r="207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A207" s="1" t="n">
+        <v>4076</v>
+      </c>
+    </row>
+    <row r="208" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A208" s="1" t="n">
+        <v>2963</v>
+      </c>
+    </row>
+    <row r="209" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A209" s="1" t="n">
+        <v>4860</v>
+      </c>
+    </row>
+    <row r="210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A210" s="1" t="n">
+        <v>4843</v>
+      </c>
+    </row>
+    <row r="211" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A211" s="1" t="n">
+        <v>4892</v>
+      </c>
+    </row>
+    <row r="212" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A212" s="1" t="n">
+        <v>4651</v>
+      </c>
+    </row>
+    <row r="213" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A213" s="1" t="n">
+        <v>4556</v>
+      </c>
+    </row>
+    <row r="214" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A214" s="1" t="n">
+        <v>3955</v>
+      </c>
+    </row>
+    <row r="215" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A215" s="1" t="n">
+        <v>3049</v>
+      </c>
+    </row>
+    <row r="216" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A216" s="1" t="n">
+        <v>5066</v>
+      </c>
+    </row>
+    <row r="217" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A217" s="1" t="n">
+        <v>4549</v>
+      </c>
+    </row>
+    <row r="218" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A218" s="1" t="n">
+        <v>4442</v>
+      </c>
+    </row>
+    <row r="219" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A219" s="1" t="n">
+        <v>4404</v>
+      </c>
+    </row>
+    <row r="220" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A220" s="1" t="n">
+        <v>4340</v>
+      </c>
+    </row>
+    <row r="221" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A221" s="1" t="n">
+        <v>4136</v>
+      </c>
+    </row>
+    <row r="222" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A222" s="1" t="n">
+        <v>3575</v>
+      </c>
+    </row>
+    <row r="223" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A223" s="1" t="n">
+        <v>5438</v>
+      </c>
+    </row>
+    <row r="224" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A224" s="1" t="n">
+        <v>5921</v>
+      </c>
+    </row>
+    <row r="225" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A225" s="1" t="n">
+        <v>6228</v>
+      </c>
+    </row>
+    <row r="226" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A226" s="1" t="n">
+        <v>5837</v>
+      </c>
+    </row>
+    <row r="227" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A227" s="1" t="n">
+        <v>5812</v>
+      </c>
+    </row>
+    <row r="228" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A228" s="1" t="n">
+        <v>4899</v>
+      </c>
+    </row>
+    <row r="229" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A229" s="1" t="n">
+        <v>3911</v>
+      </c>
+    </row>
+    <row r="230" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A230" s="1" t="n">
+        <v>6230</v>
+      </c>
+    </row>
+    <row r="231" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A231" s="1" t="n">
+        <v>7252</v>
+      </c>
+    </row>
+    <row r="232" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A232" s="1" t="n">
+        <v>7189</v>
+      </c>
+    </row>
+    <row r="233" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A233" s="1" t="n">
+        <v>6783</v>
+      </c>
+    </row>
+    <row r="234" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A234" s="1" t="n">
+        <v>6273</v>
+      </c>
+    </row>
+    <row r="235" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A235" s="1" t="n">
+        <v>6026</v>
+      </c>
+    </row>
+    <row r="236" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A236" s="1" t="n">
+        <v>5256</v>
+      </c>
+    </row>
+    <row r="237" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A237" s="1" t="n">
+        <v>8372</v>
+      </c>
+    </row>
+    <row r="238" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A238" s="1" t="n">
+        <v>3496</v>
+      </c>
+    </row>
+    <row r="239" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A239" s="1" t="n">
+        <v>5887</v>
+      </c>
+    </row>
+    <row r="240" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A240" s="1" t="n">
+        <v>5640</v>
+      </c>
+    </row>
+    <row r="241" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A241" s="1" t="n">
+        <v>5576</v>
+      </c>
+    </row>
+    <row r="242" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A242" s="1" t="n">
+        <v>4401</v>
+      </c>
+    </row>
+    <row r="243" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A243" s="1" t="n">
+        <v>3114</v>
+      </c>
+    </row>
+    <row r="244" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A244" s="1" t="n">
+        <v>6063</v>
+      </c>
+    </row>
+    <row r="245" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A245" s="1" t="n">
+        <v>5769</v>
+      </c>
+    </row>
+    <row r="246" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A246" s="1" t="n">
+        <v>5224</v>
+      </c>
+    </row>
+    <row r="247" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A247" s="1" t="n">
+        <v>5253</v>
+      </c>
+    </row>
+    <row r="248" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A248" s="1" t="n">
+        <v>5084</v>
+      </c>
+    </row>
+    <row r="249" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A249" s="1" t="n">
+        <v>4120</v>
+      </c>
+    </row>
+    <row r="250" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A250" s="1" t="n">
+        <v>3457</v>
+      </c>
+    </row>
+    <row r="251" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A251" s="1" t="n">
+        <v>5598</v>
+      </c>
+    </row>
+    <row r="252" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A252" s="1" t="n">
+        <v>5412</v>
+      </c>
+    </row>
+    <row r="253" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A253" s="1" t="n">
+        <v>5266</v>
+      </c>
+    </row>
+    <row r="254" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A254" s="1" t="n">
+        <v>5249</v>
+      </c>
+    </row>
+    <row r="255" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A255" s="1" t="n">
+        <v>5151</v>
+      </c>
+    </row>
+    <row r="256" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A256" s="1" t="n">
+        <v>4561</v>
+      </c>
+    </row>
+    <row r="257" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A257" s="1" t="n">
+        <v>3464</v>
+      </c>
+    </row>
+    <row r="258" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A258" s="1" t="n">
+        <v>6169</v>
+      </c>
+    </row>
+    <row r="259" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A259" s="1" t="n">
+        <v>5679</v>
+      </c>
+    </row>
+    <row r="260" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A260" s="1" t="n">
+        <v>5606</v>
+      </c>
+    </row>
+    <row r="261" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A261" s="1" t="n">
+        <v>5797</v>
+      </c>
+    </row>
+    <row r="262" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A262" s="1" t="n">
+        <v>6347</v>
+      </c>
+    </row>
+    <row r="263" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A263" s="1" t="n">
+        <v>4788</v>
+      </c>
+    </row>
+    <row r="264" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A264" s="1" t="n">
+        <v>4003</v>
+      </c>
+    </row>
+    <row r="265" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A265" s="1" t="n">
+        <v>6968</v>
+      </c>
+    </row>
+    <row r="266" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A266" s="1" t="n">
+        <v>7133</v>
+      </c>
+    </row>
+    <row r="267" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A267" s="1" t="n">
+        <v>7542</v>
+      </c>
+    </row>
+    <row r="268" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A268" s="1" t="n">
+        <v>7357</v>
+      </c>
+    </row>
+    <row r="269" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A269" s="1" t="n">
+        <v>4882</v>
+      </c>
+    </row>
+    <row r="270" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A270" s="1" t="n">
+        <v>3068</v>
+      </c>
+    </row>
+    <row r="271" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A271" s="1" t="n">
+        <v>2162</v>
+      </c>
+    </row>
+    <row r="272" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A272" s="1" t="n">
+        <v>3728</v>
+      </c>
+    </row>
+    <row r="273" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A273" s="1" t="n">
+        <v>3491</v>
+      </c>
+    </row>
+    <row r="274" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A274" s="1" t="n">
+        <v>3405</v>
+      </c>
+    </row>
+    <row r="275" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A275" s="1" t="n">
+        <v>3357</v>
+      </c>
+    </row>
+    <row r="276" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A276" s="1" t="n">
+        <v>2884</v>
+      </c>
+    </row>
+    <row r="277" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A277" s="1" t="n">
+        <v>2403</v>
+      </c>
+    </row>
+    <row r="278" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A278" s="1" t="n">
+        <v>1861</v>
+      </c>
+    </row>
+    <row r="279" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A279" s="1" t="n">
+        <v>3491</v>
+      </c>
+    </row>
+    <row r="280" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A280" s="1" t="n">
+        <v>3078</v>
+      </c>
+    </row>
+    <row r="281" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A281" s="1" t="n">
+        <v>2879</v>
+      </c>
+    </row>
+    <row r="282" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A282" s="1" t="n">
+        <v>2937</v>
+      </c>
+    </row>
+    <row r="283" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A283" s="1" t="n">
+        <v>3044</v>
+      </c>
+    </row>
+    <row r="284" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A284" s="1" t="n">
+        <v>2390</v>
+      </c>
+    </row>
+    <row r="285" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A285" s="1" t="n">
+        <v>1948</v>
+      </c>
+    </row>
+    <row r="286" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A286" s="1" t="n">
+        <v>3787</v>
+      </c>
+    </row>
+    <row r="287" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A287" s="1" t="n">
+        <v>3058</v>
+      </c>
+    </row>
+    <row r="288" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A288" s="1" t="n">
+        <v>2847</v>
+      </c>
+    </row>
+    <row r="289" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A289" s="1" t="n">
+        <v>2913</v>
+      </c>
+    </row>
+    <row r="290" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A290" s="1" t="n">
+        <v>3051</v>
+      </c>
+    </row>
+    <row r="291" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A291" s="1" t="n">
+        <v>2318</v>
+      </c>
+    </row>
+    <row r="292" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A292" s="1" t="n">
+        <v>1744</v>
+      </c>
+    </row>
+    <row r="293" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A293" s="1" t="n">
+        <v>3561</v>
+      </c>
+    </row>
+    <row r="294" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A294" s="1" t="n">
+        <v>3253</v>
+      </c>
+    </row>
+    <row r="295" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A295" s="1" t="n">
+        <v>3257</v>
+      </c>
+    </row>
+    <row r="296" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A296" s="1" t="n">
+        <v>2896</v>
+      </c>
+    </row>
+    <row r="297" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A297" s="1" t="n">
+        <v>3920</v>
+      </c>
+    </row>
+    <row r="298" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A298" s="1" t="n">
+        <v>2286</v>
+      </c>
+    </row>
+    <row r="299" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A299" s="1" t="n">
+        <v>1762</v>
+      </c>
+    </row>
+    <row r="300" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A300" s="1" t="n">
+        <v>3291</v>
+      </c>
+    </row>
+    <row r="301" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A301" s="1" t="n">
+        <v>3075</v>
+      </c>
+    </row>
+    <row r="302" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A302" s="1" t="n">
+        <v>3002</v>
+      </c>
+    </row>
+    <row r="303" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A303" s="1" t="n">
+        <v>2913</v>
+      </c>
+    </row>
+    <row r="304" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A304" s="1" t="n">
+        <v>2896</v>
+      </c>
+    </row>
+    <row r="305" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A305" s="1" t="n">
+        <v>2412</v>
+      </c>
+    </row>
+    <row r="306" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A306" s="1" t="n">
+        <v>1771</v>
+      </c>
+    </row>
+    <row r="307" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A307" s="1" t="n">
+        <v>3651</v>
+      </c>
+    </row>
+    <row r="308" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A308" s="1" t="n">
+        <v>2828</v>
+      </c>
+    </row>
+    <row r="309" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A309" s="1" t="n">
+        <v>3284</v>
+      </c>
+    </row>
+    <row r="310" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A310" s="1" t="n">
+        <v>2839</v>
+      </c>
+    </row>
+    <row r="311" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A311" s="1" t="n">
+        <v>3141</v>
+      </c>
+    </row>
+    <row r="312" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A312" s="1" t="n">
+        <v>2441</v>
+      </c>
+    </row>
+    <row r="313" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A313" s="1" t="n">
+        <v>2046</v>
+      </c>
+    </row>
+    <row r="314" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A314" s="1" t="n">
+        <v>3527</v>
+      </c>
+    </row>
+    <row r="315" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A315" s="1" t="n">
+        <v>3381</v>
+      </c>
+    </row>
+    <row r="316" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A316" s="1" t="n">
+        <v>3332</v>
+      </c>
+    </row>
+    <row r="317" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A317" s="1" t="n">
+        <v>3207</v>
+      </c>
+    </row>
+    <row r="318" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A318" s="1" t="n">
+        <v>3422</v>
+      </c>
+    </row>
+    <row r="319" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A319" s="1" t="n">
+        <v>2347</v>
+      </c>
+    </row>
+    <row r="320" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A320" s="1" t="n">
+        <v>1927</v>
+      </c>
+    </row>
+    <row r="321" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A321" s="1" t="n">
+        <v>3641</v>
+      </c>
+    </row>
+    <row r="322" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A322" s="1" t="n">
+        <v>3394</v>
+      </c>
+    </row>
+    <row r="323" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A323" s="1" t="n">
+        <v>3393</v>
+      </c>
+    </row>
+    <row r="324" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A324" s="1" t="n">
+        <v>3350</v>
+      </c>
+    </row>
+    <row r="325" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A325" s="1" t="n">
+        <v>3320</v>
+      </c>
+    </row>
+    <row r="326" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A326" s="1" t="n">
+        <v>2587</v>
+      </c>
+    </row>
+    <row r="327" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A327" s="1" t="n">
+        <v>1626</v>
+      </c>
+    </row>
+    <row r="328" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A328" s="1" t="n">
+        <v>3537</v>
+      </c>
+    </row>
+    <row r="329" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A329" s="1" t="n">
+        <v>3265</v>
+      </c>
+    </row>
+    <row r="330" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A330" s="1" t="n">
+        <v>3607</v>
+      </c>
+    </row>
+    <row r="331" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A331" s="1" t="n">
+        <v>3262</v>
+      </c>
+    </row>
+    <row r="332" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A332" s="1" t="n">
+        <v>3236</v>
+      </c>
+    </row>
+    <row r="333" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A333" s="1" t="n">
+        <v>2308</v>
+      </c>
+    </row>
+    <row r="334" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A334" s="1" t="n">
+        <v>1977</v>
+      </c>
+    </row>
+    <row r="335" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A335" s="1" t="n">
+        <v>3653</v>
+      </c>
+    </row>
+    <row r="336" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A336" s="1" t="n">
+        <v>3333</v>
+      </c>
+    </row>
+    <row r="337" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A337" s="1" t="n">
+        <v>3204</v>
+      </c>
+    </row>
+    <row r="338" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A338" s="1" t="n">
+        <v>3112</v>
+      </c>
+    </row>
+    <row r="339" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A339" s="1" t="n">
+        <v>3141</v>
+      </c>
+    </row>
+    <row r="340" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A340" s="1" t="n">
+        <v>1751</v>
+      </c>
+    </row>
+    <row r="341" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A341" s="1" t="n">
+        <v>3748</v>
+      </c>
+    </row>
+    <row r="342" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A342" s="1" t="n">
+        <v>3456</v>
+      </c>
+    </row>
+    <row r="343" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A343" s="1" t="n">
+        <v>3366</v>
+      </c>
+    </row>
+    <row r="344" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A344" s="1" t="n">
+        <v>3236</v>
+      </c>
+    </row>
+    <row r="345" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A345" s="1" t="n">
+        <v>3019</v>
+      </c>
+    </row>
+    <row r="346" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A346" s="1" t="n">
+        <v>2502</v>
+      </c>
+    </row>
+    <row r="347" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A347" s="1" t="n">
+        <v>1705</v>
+      </c>
+    </row>
+    <row r="348" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A348" s="1" t="n">
+        <v>3418</v>
+      </c>
+    </row>
+    <row r="349" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A349" s="1" t="n">
+        <v>2558</v>
+      </c>
+    </row>
+    <row r="350" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A350" s="1" t="n">
+        <v>3313</v>
+      </c>
+    </row>
+    <row r="351" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A351" s="1" t="n">
+        <v>3230</v>
+      </c>
+    </row>
+    <row r="352" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A352" s="1" t="n">
+        <v>3275</v>
+      </c>
+    </row>
+    <row r="353" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A353" s="1" t="n">
+        <v>2383</v>
+      </c>
+    </row>
+    <row r="354" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A354" s="1" t="n">
+        <v>1739</v>
+      </c>
+    </row>
+    <row r="355" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A355" s="1" t="n">
+        <v>3542</v>
+      </c>
+    </row>
+    <row r="356" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A356" s="1" t="n">
+        <v>3366</v>
+      </c>
+    </row>
+    <row r="357" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A357" s="1" t="n">
+        <v>2570</v>
+      </c>
+    </row>
+    <row r="358" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A358" s="1" t="n">
+        <v>3274</v>
+      </c>
+    </row>
+    <row r="359" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A359" s="1" t="n">
+        <v>3258</v>
+      </c>
+    </row>
+    <row r="360" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A360" s="1" t="n">
+        <v>2665</v>
+      </c>
+    </row>
+    <row r="361" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A361" s="1" t="n">
+        <v>1808</v>
+      </c>
+    </row>
+    <row r="362" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A362" s="1" t="n">
+        <v>3197</v>
+      </c>
+    </row>
+    <row r="363" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A363" s="1" t="n">
+        <v>3151</v>
+      </c>
+    </row>
+    <row r="364" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A364" s="1" t="n">
+        <v>3294</v>
+      </c>
+    </row>
+    <row r="365" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A365" s="1" t="n">
+        <v>3252</v>
+      </c>
+    </row>
+    <row r="366" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A366" s="1" t="n">
+        <v>3345</v>
+      </c>
+    </row>
+    <row r="367" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A367" s="1" t="n">
+        <v>2551</v>
+      </c>
+    </row>
+    <row r="368" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A368" s="1" t="n">
+        <v>1875</v>
+      </c>
+    </row>
+    <row r="369" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A369" s="1" t="n">
+        <v>3464</v>
+      </c>
+    </row>
+    <row r="370" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A370" s="1" t="n">
+        <v>3247</v>
+      </c>
+    </row>
+    <row r="371" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A371" s="1" t="n">
+        <v>3355</v>
+      </c>
+    </row>
+    <row r="372" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A372" s="1" t="n">
+        <v>3454</v>
+      </c>
+    </row>
+    <row r="373" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A373" s="1" t="n">
+        <v>3014</v>
+      </c>
+    </row>
+    <row r="374" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A374" s="1" t="n">
+        <v>2431</v>
+      </c>
+    </row>
+    <row r="375" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A375" s="1" t="n">
+        <v>1769</v>
+      </c>
+    </row>
+    <row r="376" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A376" s="1" t="n">
+        <v>3479</v>
+      </c>
+    </row>
+    <row r="377" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A377" s="1" t="n">
+        <v>3415</v>
+      </c>
+    </row>
+    <row r="378" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A378" s="1" t="n">
+        <v>3155</v>
+      </c>
+    </row>
+    <row r="379" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A379" s="1" t="n">
+        <v>3029</v>
+      </c>
+    </row>
+    <row r="380" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A380" s="1" t="n">
+        <v>3369</v>
+      </c>
+    </row>
+    <row r="381" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A381" s="1" t="n">
+        <v>2716</v>
+      </c>
+    </row>
+    <row r="382" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A382" s="1" t="n">
+        <v>2096</v>
+      </c>
+    </row>
+    <row r="383" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A383" s="1" t="n">
+        <v>4115</v>
+      </c>
+    </row>
+    <row r="384" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A384" s="1" t="n">
+        <v>3649</v>
+      </c>
+    </row>
+    <row r="385" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A385" s="1" t="n">
+        <v>3785</v>
+      </c>
+    </row>
+    <row r="386" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A386" s="1" t="n">
+        <v>3763</v>
+      </c>
+    </row>
+    <row r="387" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A387" s="1" t="n">
+        <v>4122</v>
+      </c>
+    </row>
+    <row r="388" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A388" s="1" t="n">
+        <v>3972</v>
+      </c>
+    </row>
+    <row r="389" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A389" s="1" t="n">
+        <v>2643</v>
+      </c>
+    </row>
+    <row r="390" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A390" s="1" t="n">
+        <v>3301</v>
+      </c>
+    </row>
+    <row r="391" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A391" s="1" t="n">
+        <v>1679</v>
+      </c>
+    </row>
+    <row r="392" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A392" s="1" t="n">
+        <v>1825</v>
+      </c>
+    </row>
+    <row r="393" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A393" s="1" t="n">
+        <v>1919</v>
+      </c>
+    </row>
+    <row r="394" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A394" s="1" t="n">
+        <v>2903</v>
+      </c>
+    </row>
+    <row r="395" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A395" s="1" t="n">
+        <v>2692</v>
+      </c>
+    </row>
+    <row r="396" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A396" s="1" t="n">
+        <v>2262</v>
+      </c>
+    </row>
+    <row r="397" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A397" s="1" t="n">
+        <v>4341</v>
+      </c>
+    </row>
+    <row r="398" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A398" s="1" t="n">
+        <v>3898</v>
+      </c>
+    </row>
+    <row r="399" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A399" s="1" t="n">
+        <v>3527</v>
+      </c>
+    </row>
+    <row r="400" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A400" s="1" t="n">
+        <v>3435</v>
+      </c>
+    </row>
+    <row r="401" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A401" s="1" t="n">
+        <v>3461</v>
+      </c>
+    </row>
+    <row r="402" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A402" s="1" t="n">
+        <v>2827</v>
+      </c>
+    </row>
+    <row r="403" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A403" s="1" t="n">
+        <v>2102</v>
+      </c>
+    </row>
+    <row r="404" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A404" s="1" t="n">
+        <v>3680</v>
+      </c>
+    </row>
+    <row r="405" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A405" s="1" t="n">
+        <v>3473</v>
+      </c>
+    </row>
+    <row r="406" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A406" s="1" t="n">
+        <v>3502</v>
+      </c>
+    </row>
+    <row r="407" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A407" s="1" t="n">
+        <v>3224</v>
+      </c>
+    </row>
+    <row r="408" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A408" s="1" t="n">
+        <v>3598</v>
+      </c>
+    </row>
+    <row r="409" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A409" s="1" t="n">
+        <v>2619</v>
+      </c>
+    </row>
+    <row r="410" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A410" s="1" t="n">
+        <v>2072</v>
+      </c>
+    </row>
+    <row r="411" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A411" s="1" t="n">
+        <v>3646</v>
+      </c>
+    </row>
+    <row r="412" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A412" s="1" t="n">
+        <v>3777</v>
+      </c>
+    </row>
+    <row r="413" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A413" s="1" t="n">
+        <v>4074</v>
+      </c>
+    </row>
+    <row r="414" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A414" s="1" t="n">
+        <v>3553</v>
+      </c>
+    </row>
+    <row r="415" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A415" s="1" t="n">
+        <v>3394</v>
+      </c>
+    </row>
+    <row r="416" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A416" s="1" t="n">
+        <v>2612</v>
+      </c>
+    </row>
+    <row r="417" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A417" s="1" t="n">
+        <v>2193</v>
+      </c>
+    </row>
+    <row r="418" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A418" s="1" t="n">
+        <v>3765</v>
+      </c>
+    </row>
+    <row r="419" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A419" s="1" t="n">
+        <v>3604</v>
+      </c>
+    </row>
+    <row r="420" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A420" s="1" t="n">
+        <v>3352</v>
+      </c>
+    </row>
+    <row r="421" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A421" s="1" t="n">
+        <v>3243</v>
+      </c>
+    </row>
+    <row r="422" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A422" s="1" t="n">
+        <v>3435</v>
+      </c>
+    </row>
+    <row r="423" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A423" s="1" t="n">
+        <v>2663</v>
+      </c>
+    </row>
+    <row r="424" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A424" s="1" t="n">
+        <v>1963</v>
+      </c>
+    </row>
+    <row r="425" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A425" s="1" t="n">
+        <v>3632</v>
+      </c>
+    </row>
+    <row r="426" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A426" s="1" t="n">
+        <v>3680</v>
+      </c>
+    </row>
+    <row r="427" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A427" s="1" t="n">
+        <v>3855</v>
+      </c>
+    </row>
+    <row r="428" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A428" s="1" t="n">
+        <v>3564</v>
+      </c>
+    </row>
+    <row r="429" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A429" s="1" t="n">
+        <v>3427</v>
+      </c>
+    </row>
+    <row r="430" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A430" s="1" t="n">
+        <v>2650</v>
+      </c>
+    </row>
+    <row r="431" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A431" s="1" t="n">
+        <v>1810</v>
+      </c>
+    </row>
+    <row r="432" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A432" s="1" t="n">
+        <v>2794</v>
+      </c>
+    </row>
+    <row r="433" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A433" s="1" t="n">
+        <v>3918</v>
+      </c>
+    </row>
+    <row r="434" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A434" s="1" t="n">
+        <v>3296</v>
+      </c>
+    </row>
+    <row r="435" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A435" s="1" t="n">
+        <v>3136</v>
+      </c>
+    </row>
+    <row r="436" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A436" s="1" t="n">
+        <v>3267</v>
+      </c>
+    </row>
+    <row r="437" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A437" s="1" t="n">
+        <v>2556</v>
+      </c>
+    </row>
+    <row r="438" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A438" s="1" t="n">
+        <v>1842</v>
+      </c>
+    </row>
+    <row r="439" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A439" s="1" t="n">
+        <v>3736</v>
+      </c>
+    </row>
+    <row r="440" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A440" s="1" t="n">
+        <v>3332</v>
+      </c>
+    </row>
+    <row r="441" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A441" s="1" t="n">
+        <v>3104</v>
+      </c>
+    </row>
+    <row r="442" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A442" s="1" t="n">
+        <v>3082</v>
+      </c>
+    </row>
+    <row r="443" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A443" s="1" t="n">
+        <v>3099</v>
+      </c>
+    </row>
+    <row r="444" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A444" s="1" t="n">
+        <v>2427</v>
+      </c>
+    </row>
+    <row r="445" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A445" s="1" t="n">
+        <v>1931</v>
+      </c>
+    </row>
+    <row r="446" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A446" s="1" t="n">
+        <v>3379</v>
+      </c>
+    </row>
+    <row r="447" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A447" s="1" t="n">
+        <v>3048</v>
+      </c>
+    </row>
+    <row r="448" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A448" s="1" t="n">
+        <v>3235</v>
+      </c>
+    </row>
+    <row r="449" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A449" s="1" t="n">
+        <v>3541</v>
+      </c>
+    </row>
+    <row r="450" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A450" s="1" t="n">
+        <v>3253</v>
+      </c>
+    </row>
+    <row r="451" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A451" s="1" t="n">
+        <v>2468</v>
+      </c>
+    </row>
+    <row r="452" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A452" s="1" t="n">
+        <v>1793</v>
+      </c>
+    </row>
+    <row r="453" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A453" s="1" t="n">
+        <v>3355</v>
+      </c>
+    </row>
+    <row r="454" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A454" s="1" t="n">
+        <v>3462</v>
+      </c>
+    </row>
+    <row r="455" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A455" s="1" t="n">
+        <v>3507</v>
+      </c>
+    </row>
+    <row r="456" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A456" s="1" t="n">
+        <v>4722</v>
+      </c>
+    </row>
+    <row r="457" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A457" s="1" t="n">
+        <v>7658</v>
+      </c>
+    </row>
+    <row r="458" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A458" s="1" t="n">
+        <v>7466</v>
+      </c>
+    </row>
+    <row r="459" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A459" s="1" t="n">
+        <v>3916</v>
+      </c>
+    </row>
+    <row r="460" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A460" s="1" t="n">
+        <v>4777</v>
+      </c>
+    </row>
+    <row r="461" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A461" s="1" t="n">
+        <v>4338</v>
+      </c>
+    </row>
+    <row r="462" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A462" s="1" t="n">
+        <v>4207</v>
+      </c>
+    </row>
+    <row r="463" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A463" s="1" t="n">
+        <v>5458</v>
+      </c>
+    </row>
+    <row r="464" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A464" s="1" t="n">
+        <v>4880</v>
+      </c>
+    </row>
+    <row r="465" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A465" s="1" t="n">
+        <v>4569</v>
+      </c>
+    </row>
+    <row r="466" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A466" s="1" t="n">
+        <v>4006</v>
+      </c>
+    </row>
+    <row r="467" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A467" s="1" t="n">
+        <v>6354</v>
+      </c>
+    </row>
+    <row r="468" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A468" s="1" t="n">
+        <v>5091</v>
+      </c>
+    </row>
+    <row r="469" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A469" s="1" t="n">
+        <v>4595</v>
+      </c>
+    </row>
+    <row r="470" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A470" s="1" t="n">
+        <v>3976</v>
+      </c>
+    </row>
+    <row r="471" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A471" s="1" t="n">
+        <v>3811</v>
+      </c>
+    </row>
+    <row r="472" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A472" s="1" t="n">
+        <v>3364</v>
+      </c>
+    </row>
+    <row r="473" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A473" s="1" t="n">
+        <v>2723</v>
+      </c>
+    </row>
+    <row r="474" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A474" s="1" t="n">
+        <v>4586</v>
+      </c>
+    </row>
+    <row r="475" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A475" s="1" t="n">
+        <v>3753</v>
+      </c>
+    </row>
+    <row r="476" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A476" s="1" t="n">
+        <v>3745</v>
+      </c>
+    </row>
+    <row r="477" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A477" s="1" t="n">
+        <v>3979</v>
+      </c>
+    </row>
+    <row r="478" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A478" s="1" t="n">
+        <v>2816</v>
+      </c>
+    </row>
+    <row r="479" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A479" s="1" t="n">
+        <v>2924</v>
+      </c>
+    </row>
+    <row r="480" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A480" s="1" t="n">
+        <v>2352</v>
+      </c>
+    </row>
+    <row r="481" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A481" s="1" t="n">
+        <v>4117</v>
+      </c>
+    </row>
+    <row r="482" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A482" s="1" t="n">
+        <v>3860</v>
+      </c>
+    </row>
+    <row r="483" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A483" s="1" t="n">
+        <v>3556</v>
+      </c>
+    </row>
+    <row r="484" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A484" s="1" t="n">
+        <v>3585</v>
+      </c>
+    </row>
+    <row r="485" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A485" s="1" t="n">
+        <v>3605</v>
+      </c>
+    </row>
+    <row r="486" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A486" s="1" t="n">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="487" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A487" s="1" t="n">
+        <v>2109</v>
+      </c>
+    </row>
+    <row r="488" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A488" s="1" t="n">
+        <v>3767</v>
+      </c>
+    </row>
+    <row r="489" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A489" s="1" t="n">
+        <v>3799</v>
+      </c>
+    </row>
+    <row r="490" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A490" s="1" t="n">
+        <v>3481</v>
+      </c>
+    </row>
+    <row r="491" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A491" s="1" t="n">
+        <v>3337</v>
+      </c>
+    </row>
+    <row r="492" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A492" s="1" t="n">
+        <v>3065</v>
+      </c>
+    </row>
+    <row r="493" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A493" s="1" t="n">
+        <v>2903</v>
+      </c>
+    </row>
+    <row r="494" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A494" s="1" t="n">
+        <v>2357</v>
+      </c>
+    </row>
+    <row r="495" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A495" s="1" t="n">
+        <v>3806</v>
+      </c>
+    </row>
+    <row r="496" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A496" s="1" t="n">
+        <v>4362</v>
+      </c>
+    </row>
+    <row r="497" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A497" s="1" t="n">
+        <v>3835</v>
+      </c>
+    </row>
+    <row r="498" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A498" s="1" t="n">
+        <v>3821</v>
+      </c>
+    </row>
+    <row r="499" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A499" s="1" t="n">
+        <v>3760</v>
+      </c>
+    </row>
+    <row r="500" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A500" s="1" t="n">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="501" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A501" s="1" t="n">
+        <v>2521</v>
+      </c>
+    </row>
+    <row r="502" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A502" s="1" t="n">
+        <v>3915</v>
+      </c>
+    </row>
+    <row r="503" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A503" s="1" t="n">
+        <v>3770</v>
+      </c>
+    </row>
+    <row r="504" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A504" s="1" t="n">
+        <v>3680</v>
+      </c>
+    </row>
+    <row r="505" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A505" s="1" t="n">
+        <v>3241</v>
+      </c>
+    </row>
+    <row r="506" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A506" s="1" t="n">
+        <v>3765</v>
+      </c>
+    </row>
+    <row r="507" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A507" s="1" t="n">
+        <v>3083</v>
+      </c>
+    </row>
+    <row r="508" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A508" s="1" t="n">
+        <v>2558</v>
+      </c>
+    </row>
+    <row r="509" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A509" s="1" t="n">
+        <v>4129</v>
+      </c>
+    </row>
+    <row r="510" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A510" s="1" t="n">
+        <v>4086</v>
+      </c>
+    </row>
+    <row r="511" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A511" s="1" t="n">
+        <v>3833</v>
+      </c>
+    </row>
+    <row r="512" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A512" s="1" t="n">
+        <v>3801</v>
+      </c>
+    </row>
+    <row r="513" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A513" s="1" t="n">
+        <v>3933</v>
+      </c>
+    </row>
+    <row r="514" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A514" s="1" t="n">
+        <v>2969</v>
+      </c>
+    </row>
+    <row r="515" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A515" s="1" t="n">
+        <v>2465</v>
+      </c>
+    </row>
+    <row r="516" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A516" s="1" t="n">
+        <v>4469</v>
+      </c>
+    </row>
+    <row r="517" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A517" s="1" t="n">
+        <v>3711</v>
+      </c>
+    </row>
+    <row r="518" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A518" s="1" t="n">
+        <v>3753</v>
+      </c>
+    </row>
+    <row r="519" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A519" s="1" t="n">
+        <v>3632</v>
+      </c>
+    </row>
+    <row r="520" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A520" s="1" t="n">
+        <v>3760</v>
+      </c>
+    </row>
+    <row r="521" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A521" s="1" t="n">
+        <v>2878</v>
+      </c>
+    </row>
+    <row r="522" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A522" s="1" t="n">
+        <v>2422</v>
+      </c>
+    </row>
+    <row r="523" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A523" s="1" t="n">
+        <v>4012</v>
+      </c>
+    </row>
+    <row r="524" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A524" s="1" t="n">
+        <v>3852</v>
+      </c>
+    </row>
+    <row r="525" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A525" s="1" t="n">
+        <v>3791</v>
+      </c>
+    </row>
+    <row r="526" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A526" s="1" t="n">
+        <v>3915</v>
+      </c>
+    </row>
+    <row r="527" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A527" s="1" t="n">
+        <v>3933</v>
+      </c>
+    </row>
+    <row r="528" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A528" s="1" t="n">
+        <v>3158</v>
+      </c>
+    </row>
+    <row r="529" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A529" s="1" t="n">
+        <v>2476</v>
+      </c>
+    </row>
+    <row r="530" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A530" s="1" t="n">
+        <v>4304</v>
+      </c>
+    </row>
+    <row r="531" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A531" s="1" t="n">
+        <v>3690</v>
+      </c>
+    </row>
+    <row r="532" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A532" s="1" t="n">
+        <v>4073</v>
+      </c>
+    </row>
+    <row r="533" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A533" s="1" t="n">
+        <v>4131</v>
+      </c>
+    </row>
+    <row r="534" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A534" s="1" t="n">
+        <v>3131</v>
+      </c>
+    </row>
+    <row r="535" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A535" s="1" t="n">
+        <v>2351</v>
+      </c>
+    </row>
+    <row r="536" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A536" s="1" t="n">
+        <v>3942</v>
+      </c>
+    </row>
+    <row r="537" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A537" s="1" t="n">
+        <v>2857</v>
+      </c>
+    </row>
+    <row r="538" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A538" s="1" t="n">
+        <v>4233</v>
+      </c>
+    </row>
+    <row r="539" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A539" s="1" t="n">
+        <v>3870</v>
+      </c>
+    </row>
+    <row r="540" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A540" s="1" t="n">
+        <v>4100</v>
+      </c>
+    </row>
+    <row r="541" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A541" s="1" t="n">
+        <v>3366</v>
+      </c>
+    </row>
+    <row r="542" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A542" s="1" t="n">
+        <v>2560</v>
+      </c>
+    </row>
+    <row r="543" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A543" s="1" t="n">
+        <v>3609</v>
+      </c>
+    </row>
+    <row r="544" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A544" s="1" t="n">
+        <v>3510</v>
+      </c>
+    </row>
+    <row r="545" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A545" s="1" t="n">
+        <v>3180</v>
+      </c>
+    </row>
+    <row r="546" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A546" s="1" t="n">
+        <v>3277</v>
+      </c>
+    </row>
+    <row r="547" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A547" s="1" t="n">
+        <v>3133</v>
+      </c>
+    </row>
+    <row r="548" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A548" s="1" t="n">
+        <v>2551</v>
+      </c>
+    </row>
+    <row r="549" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A549" s="1" t="n">
+        <v>1960</v>
+      </c>
+    </row>
+    <row r="550" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A550" s="1" t="n">
+        <v>3554</v>
+      </c>
+    </row>
+    <row r="551" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A551" s="1" t="n">
+        <v>3316</v>
+      </c>
+    </row>
+    <row r="552" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A552" s="1" t="n">
+        <v>2990</v>
+      </c>
+    </row>
+    <row r="553" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A553" s="1" t="n">
+        <v>2958</v>
+      </c>
+    </row>
+    <row r="554" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A554" s="1" t="n">
+        <v>3275</v>
+      </c>
+    </row>
+    <row r="555" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A555" s="1" t="n">
+        <v>2682</v>
+      </c>
+    </row>
+    <row r="556" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A556" s="1" t="n">
+        <v>1892</v>
+      </c>
+    </row>
+    <row r="557" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A557" s="1" t="n">
+        <v>3403</v>
+      </c>
+    </row>
+    <row r="558" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A558" s="1" t="n">
+        <v>3257</v>
+      </c>
+    </row>
+    <row r="559" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A559" s="1" t="n">
+        <v>3138</v>
+      </c>
+    </row>
+    <row r="560" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A560" s="1" t="n">
+        <v>3231</v>
+      </c>
+    </row>
+    <row r="561" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A561" s="1" t="n">
+        <v>2830</v>
+      </c>
+    </row>
+    <row r="562" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A562" s="1" t="n">
+        <v>2385</v>
+      </c>
+    </row>
+    <row r="563" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A563" s="1" t="n">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="564" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A564" s="1" t="n">
+        <v>3388</v>
+      </c>
+    </row>
+    <row r="565" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A565" s="1" t="n">
+        <v>3255</v>
+      </c>
+    </row>
+    <row r="566" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A566" s="1" t="n">
+        <v>3289</v>
+      </c>
+    </row>
+    <row r="567" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A567" s="1" t="n">
+        <v>3095</v>
+      </c>
+    </row>
+    <row r="568" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A568" s="1" t="n">
+        <v>3032</v>
+      </c>
+    </row>
+    <row r="569" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A569" s="1" t="n">
+        <v>2499</v>
+      </c>
+    </row>
+    <row r="570" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A570" s="1" t="n">
+        <v>2101</v>
+      </c>
+    </row>
+    <row r="571" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A571" s="1" t="n">
+        <v>3638</v>
+      </c>
+    </row>
+    <row r="572" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A572" s="1" t="n">
+        <v>3488</v>
+      </c>
+    </row>
+    <row r="573" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A573" s="1" t="n">
+        <v>3202</v>
+      </c>
+    </row>
+    <row r="574" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A574" s="1" t="n">
+        <v>3568</v>
+      </c>
+    </row>
+    <row r="575" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A575" s="1" t="n">
+        <v>3338</v>
+      </c>
+    </row>
+    <row r="576" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A576" s="1" t="n">
+        <v>2879</v>
+      </c>
+    </row>
+    <row r="577" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A577" s="1" t="n">
+        <v>2099</v>
+      </c>
+    </row>
+    <row r="578" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A578" s="1" t="n">
+        <v>3879</v>
+      </c>
+    </row>
+    <row r="579" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A579" s="1" t="n">
+        <v>3692</v>
+      </c>
+    </row>
+    <row r="580" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A580" s="1" t="n">
+        <v>3881</v>
+      </c>
+    </row>
+    <row r="581" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A581" s="1" t="n">
+        <v>3904</v>
+      </c>
+    </row>
+    <row r="582" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A582" s="1" t="n">
+        <v>3874</v>
+      </c>
+    </row>
+    <row r="583" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A583" s="1" t="n">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="584" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A584" s="1" t="n">
+        <v>2694</v>
+      </c>
+    </row>
+    <row r="585" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A585" s="1" t="n">
+        <v>4413</v>
+      </c>
+    </row>
+    <row r="586" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A586" s="1" t="n">
+        <v>4161</v>
+      </c>
+    </row>
+    <row r="587" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A587" s="1" t="n">
+        <v>4013</v>
+      </c>
+    </row>
+    <row r="588" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A588" s="1" t="n">
+        <v>4165</v>
+      </c>
+    </row>
+    <row r="589" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A589" s="1" t="n">
+        <v>4083</v>
+      </c>
+    </row>
+    <row r="590" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A590" s="1" t="n">
+        <v>3384</v>
+      </c>
+    </row>
+    <row r="591" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A591" s="1" t="n">
+        <v>2380</v>
+      </c>
+    </row>
+    <row r="592" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A592" s="1" t="n">
+        <v>4229</v>
+      </c>
+    </row>
+    <row r="593" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A593" s="1" t="n">
+        <v>4171</v>
+      </c>
+    </row>
+    <row r="594" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A594" s="1" t="n">
+        <v>4173</v>
+      </c>
+    </row>
+    <row r="595" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A595" s="1" t="n">
+        <v>4290</v>
+      </c>
+    </row>
+    <row r="596" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A596" s="1" t="n">
+        <v>3964</v>
+      </c>
+    </row>
+    <row r="597" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A597" s="1" t="n">
+        <v>3631</v>
+      </c>
+    </row>
+    <row r="598" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A598" s="1" t="n">
+        <v>2825</v>
+      </c>
+    </row>
+    <row r="599" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A599" s="1" t="n">
+        <v>4909</v>
+      </c>
+    </row>
+    <row r="600" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A600" s="1" t="n">
+        <v>5038</v>
+      </c>
+    </row>
+    <row r="601" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A601" s="1" t="n">
+        <v>2329</v>
+      </c>
+    </row>
+    <row r="602" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A602" s="1" t="n">
+        <v>3757</v>
+      </c>
+    </row>
+    <row r="603" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A603" s="1" t="n">
+        <v>3896</v>
+      </c>
+    </row>
+    <row r="604" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A604" s="1" t="n">
+        <v>3019</v>
+      </c>
+    </row>
+    <row r="605" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A605" s="1" t="n">
+        <v>2181</v>
+      </c>
+    </row>
+    <row r="606" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A606" s="1" t="n">
+        <v>3944</v>
+      </c>
+    </row>
+    <row r="607" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A607" s="1" t="n">
+        <v>3593</v>
+      </c>
+    </row>
+    <row r="608" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A608" s="1" t="n">
+        <v>3624</v>
+      </c>
+    </row>
+    <row r="609" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A609" s="1" t="n">
+        <v>3717</v>
+      </c>
+    </row>
+    <row r="610" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A610" s="1" t="n">
+        <v>3398</v>
+      </c>
+    </row>
+    <row r="611" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A611" s="1" t="n">
+        <v>2942</v>
+      </c>
+    </row>
+    <row r="612" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A612" s="1" t="n">
+        <v>2210</v>
+      </c>
+    </row>
+    <row r="613" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A613" s="1" t="n">
+        <v>3848</v>
+      </c>
+    </row>
+    <row r="614" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A614" s="1" t="n">
+        <v>3551</v>
+      </c>
+    </row>
+    <row r="615" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A615" s="1" t="n">
+        <v>3683</v>
+      </c>
+    </row>
+    <row r="616" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A616" s="1" t="n">
+        <v>3507</v>
+      </c>
+    </row>
+    <row r="617" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A617" s="1" t="n">
+        <v>3546</v>
+      </c>
+    </row>
+    <row r="618" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A618" s="1" t="n">
+        <v>2985</v>
+      </c>
+    </row>
+    <row r="619" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A619" s="1" t="n">
+        <v>2255</v>
+      </c>
+    </row>
+    <row r="620" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A620" s="1" t="n">
+        <v>3933</v>
+      </c>
+    </row>
+    <row r="621" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A621" s="1" t="n">
+        <v>3920</v>
+      </c>
+    </row>
+    <row r="622" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A622" s="1" t="n">
+        <v>3836</v>
+      </c>
+    </row>
+    <row r="623" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A623" s="1" t="n">
+        <v>3712</v>
+      </c>
+    </row>
+    <row r="624" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A624" s="1" t="n">
+        <v>3716</v>
+      </c>
+    </row>
+    <row r="625" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A625" s="1" t="n">
+        <v>3065</v>
+      </c>
+    </row>
+    <row r="626" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A626" s="1" t="n">
+        <v>2674</v>
+      </c>
+    </row>
+    <row r="627" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A627" s="1" t="n">
+        <v>4423</v>
+      </c>
+    </row>
+    <row r="628" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A628" s="1" t="n">
+        <v>4603</v>
+      </c>
+    </row>
+    <row r="629" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A629" s="1" t="n">
+        <v>4605</v>
+      </c>
+    </row>
+    <row r="630" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A630" s="1" t="n">
+        <v>5016</v>
+      </c>
+    </row>
+    <row r="631" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A631" s="1" t="n">
+        <v>5635</v>
+      </c>
+    </row>
+    <row r="632" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A632" s="1" t="n">
+        <v>2759</v>
+      </c>
+    </row>
+    <row r="633" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A633" s="1" t="n">
+        <v>2062</v>
+      </c>
+    </row>
+    <row r="634" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A634" s="1" t="n">
+        <v>4212</v>
+      </c>
+    </row>
+    <row r="635" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A635" s="1" t="n">
+        <v>4250</v>
+      </c>
+    </row>
+    <row r="636" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A636" s="1" t="n">
+        <v>3989</v>
+      </c>
+    </row>
+    <row r="637" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A637" s="1" t="n">
+        <v>4367</v>
+      </c>
+    </row>
+    <row r="638" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A638" s="1" t="n">
+        <v>4047</v>
+      </c>
+    </row>
+    <row r="639" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A639" s="1" t="n">
+        <v>3515</v>
+      </c>
+    </row>
+    <row r="640" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A640" s="1" t="n">
+        <v>2958</v>
+      </c>
+    </row>
+    <row r="641" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A641" s="1" t="n">
+        <v>4450</v>
+      </c>
+    </row>
+    <row r="642" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A642" s="1" t="n">
+        <v>4182</v>
+      </c>
+    </row>
+    <row r="643" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A643" s="1" t="n">
+        <v>3928</v>
+      </c>
+    </row>
+    <row r="644" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A644" s="1" t="n">
+        <v>3726</v>
+      </c>
+    </row>
+    <row r="645" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A645" s="1" t="n">
+        <v>3852</v>
+      </c>
+    </row>
+    <row r="646" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A646" s="1" t="n">
+        <v>3717</v>
+      </c>
+    </row>
+    <row r="647" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A647" s="1" t="n">
+        <v>3301</v>
+      </c>
+    </row>
+    <row r="648" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A648" s="1" t="n">
+        <v>4287</v>
+      </c>
+    </row>
+    <row r="649" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A649" s="1" t="n">
+        <v>4159</v>
+      </c>
+    </row>
+    <row r="650" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A650" s="1" t="n">
+        <v>3882</v>
+      </c>
+    </row>
+    <row r="651" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A651" s="1" t="n">
+        <v>4069</v>
+      </c>
+    </row>
+    <row r="652" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A652" s="1" t="n">
+        <v>4037</v>
+      </c>
+    </row>
+    <row r="653" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A653" s="1" t="n">
+        <v>3383</v>
+      </c>
+    </row>
+    <row r="654" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A654" s="1" t="n">
+        <v>2929</v>
+      </c>
+    </row>
+    <row r="655" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A655" s="1" t="n">
+        <v>4309</v>
+      </c>
+    </row>
+    <row r="656" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A656" s="1" t="n">
+        <v>4073</v>
+      </c>
+    </row>
+    <row r="657" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A657" s="1" t="n">
+        <v>3711</v>
+      </c>
+    </row>
+    <row r="658" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A658" s="1" t="n">
+        <v>3765</v>
+      </c>
+    </row>
+    <row r="659" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A659" s="1" t="n">
+        <v>3704</v>
+      </c>
+    </row>
+    <row r="660" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A660" s="1" t="n">
+        <v>3393</v>
+      </c>
+    </row>
+    <row r="661" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A661" s="1" t="n">
+        <v>2791</v>
+      </c>
+    </row>
+    <row r="662" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A662" s="1" t="n">
+        <v>3920</v>
+      </c>
+    </row>
+    <row r="663" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A663" s="1" t="n">
+        <v>3384</v>
+      </c>
+    </row>
+    <row r="664" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A664" s="1" t="n">
+        <v>3034</v>
+      </c>
+    </row>
+    <row r="665" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A665" s="1" t="n">
+        <v>3207</v>
+      </c>
+    </row>
+    <row r="666" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A666" s="1" t="n">
+        <v>2944</v>
+      </c>
+    </row>
+    <row r="667" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A667" s="1" t="n">
+        <v>2437</v>
+      </c>
+    </row>
+    <row r="668" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A668" s="1" t="n">
+        <v>1955</v>
+      </c>
+    </row>
+    <row r="669" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A669" s="1" t="n">
+        <v>3165</v>
+      </c>
+    </row>
+    <row r="670" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A670" s="1" t="n">
+        <v>2573</v>
+      </c>
+    </row>
+    <row r="671" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A671" s="1" t="n">
+        <v>3410</v>
+      </c>
+    </row>
+    <row r="672" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A672" s="1" t="n">
+        <v>3224</v>
+      </c>
+    </row>
+    <row r="673" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A673" s="1" t="n">
+        <v>2988</v>
+      </c>
+    </row>
+    <row r="674" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A674" s="1" t="n">
+        <v>2728</v>
+      </c>
+    </row>
+    <row r="675" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A675" s="1" t="n">
+        <v>2133</v>
+      </c>
+    </row>
+    <row r="676" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A676" s="1" t="n">
+        <v>2658</v>
+      </c>
+    </row>
+    <row r="677" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A677" s="1" t="n">
+        <v>2531</v>
+      </c>
+    </row>
+    <row r="678" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A678" s="1" t="n">
+        <v>2983</v>
+      </c>
+    </row>
+    <row r="679" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A679" s="1" t="n">
+        <v>2130</v>
+      </c>
+    </row>
+    <row r="680" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A680" s="1" t="n">
+        <v>1378</v>
+      </c>
+    </row>
+    <row r="681" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A681" s="1" t="n">
+        <v>2101</v>
+      </c>
+    </row>
+    <row r="682" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A682" s="1" t="n">
+        <v>1985</v>
+      </c>
+    </row>
+    <row r="683" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A683" s="1" t="n">
+        <v>2225</v>
+      </c>
+    </row>
+    <row r="684" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A684" s="1" t="n">
+        <v>2126</v>
+      </c>
+    </row>
+    <row r="685" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A685" s="1" t="n">
+        <v>2070</v>
+      </c>
+    </row>
+    <row r="686" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A686" s="1" t="n">
+        <v>1302</v>
+      </c>
+    </row>
+    <row r="687" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A687" s="1" t="n">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="688" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A688" s="1" t="n">
+        <v>1890</v>
+      </c>
+    </row>
+    <row r="689" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A689" s="1" t="n">
+        <v>1827</v>
+      </c>
+    </row>
+    <row r="690" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A690" s="1" t="n">
+        <v>1858</v>
+      </c>
+    </row>
+    <row r="691" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A691" s="1" t="n">
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="692" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A692" s="1" t="n">
+        <v>1921</v>
+      </c>
+    </row>
+    <row r="693" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A693" s="1" t="n">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="694" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A694" s="1" t="n">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="695" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A695" s="1" t="n">
+        <v>1541</v>
+      </c>
+    </row>
+    <row r="696" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A696" s="1" t="n">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="697" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A697" s="1" t="n">
+        <v>1701</v>
+      </c>
+    </row>
+    <row r="698" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A698" s="1" t="n">
+        <v>1581</v>
+      </c>
+    </row>
+    <row r="699" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A699" s="1" t="n">
+        <v>1548</v>
+      </c>
+    </row>
+    <row r="700" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A700" s="1" t="n">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="701" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A701" s="1" t="n">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="702" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A702" s="1" t="n">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="703" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A703" s="1" t="n">
+        <v>1533</v>
+      </c>
+    </row>
+    <row r="704" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A704" s="1" t="n">
+        <v>1720</v>
+      </c>
+    </row>
+    <row r="705" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A705" s="1" t="n">
+        <v>1536</v>
+      </c>
+    </row>
+    <row r="706" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A706" s="1" t="n">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="707" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A707" s="1" t="n">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="708" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A708" s="1" t="n">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="709" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A709" s="1" t="n">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="710" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A710" s="1" t="n">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="711" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A711" s="1" t="n">
+        <v>1737</v>
+      </c>
+    </row>
+    <row r="712" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A712" s="1" t="n">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="713" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A713" s="1" t="n">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="714" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A714" s="1" t="n">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="715" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A715" s="1" t="n">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="716" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A716" s="1" t="n">
+        <v>1745</v>
+      </c>
+    </row>
+    <row r="717" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A717" s="1" t="n">
+        <v>1691</v>
+      </c>
+    </row>
+    <row r="718" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A718" s="1" t="n">
+        <v>1878</v>
+      </c>
+    </row>
+    <row r="719" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A719" s="1" t="n">
+        <v>1722</v>
+      </c>
+    </row>
+    <row r="720" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A720" s="1" t="n">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="721" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A721" s="1" t="n">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="722" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A722" s="1" t="n">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="723" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A723" s="1" t="n">
+        <v>1779</v>
+      </c>
+    </row>
+    <row r="724" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A724" s="1" t="n">
+        <v>1708</v>
+      </c>
+    </row>
+    <row r="725" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A725" s="1" t="n">
+        <v>1870</v>
+      </c>
+    </row>
+    <row r="726" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A726" s="1" t="n">
+        <v>1723</v>
+      </c>
+    </row>
+    <row r="727" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A727" s="1" t="n">
+        <v>1773</v>
+      </c>
+    </row>
+    <row r="728" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A728" s="1" t="n">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="729" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A729" s="1" t="n">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="730" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A730" s="1" t="n">
+        <v>1560</v>
+      </c>
+    </row>
+    <row r="731" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A731" s="1" t="n">
+        <v>1519</v>
+      </c>
+    </row>
+    <row r="732" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A732" s="1" t="n">
+        <v>1603</v>
+      </c>
+    </row>
+    <row r="733" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A733" s="1" t="n">
+        <v>1677</v>
+      </c>
+    </row>
+    <row r="734" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A734" s="1" t="n">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="735" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A735" s="1" t="n">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="736" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A736" s="1" t="n">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="737" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A737" s="1" t="n">
+        <v>1288</v>
+      </c>
+    </row>
+    <row r="738" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A738" s="1" t="n">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="739" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A739" s="1" t="n">
+        <v>1968</v>
+      </c>
+    </row>
+    <row r="740" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A740" s="1" t="n">
+        <v>1856</v>
+      </c>
+    </row>
+    <row r="741" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A741" s="1" t="n">
+        <v>1934</v>
+      </c>
+    </row>
+    <row r="742" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A742" s="1" t="n">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="743" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A743" s="1" t="n">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="744" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A744" s="1" t="n">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="745" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A745" s="1" t="n">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="746" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A746" s="1" t="n">
+        <v>1978</v>
+      </c>
+    </row>
+    <row r="747" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A747" s="1" t="n">
+        <v>1975</v>
+      </c>
+    </row>
+    <row r="748" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A748" s="1" t="n">
+        <v>2028</v>
+      </c>
+    </row>
+    <row r="749" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A749" s="1" t="n">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="750" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A750" s="1" t="n">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="751" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A751" s="1" t="n">
+        <v>2442</v>
+      </c>
+    </row>
+    <row r="752" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A752" s="1" t="n">
+        <v>2495</v>
+      </c>
+    </row>
+    <row r="753" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A753" s="1" t="n">
+        <v>2405</v>
+      </c>
+    </row>
+    <row r="754" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A754" s="1" t="n">
+        <v>2249</v>
+      </c>
+    </row>
+    <row r="755" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A755" s="1" t="n">
+        <v>2502</v>
+      </c>
+    </row>
+    <row r="756" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A756" s="1" t="n">
+        <v>1892</v>
+      </c>
+    </row>
+    <row r="757" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A757" s="1" t="n">
+        <v>1424</v>
+      </c>
+    </row>
+    <row r="758" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A758" s="1" t="n">
+        <v>3151</v>
+      </c>
+    </row>
+    <row r="759" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A759" s="1" t="n">
+        <v>2516</v>
+      </c>
+    </row>
+    <row r="760" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A760" s="1" t="n">
+        <v>2363</v>
+      </c>
+    </row>
+    <row r="761" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A761" s="1" t="n">
+        <v>2507</v>
+      </c>
+    </row>
+    <row r="762" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A762" s="1" t="n">
+        <v>2441</v>
+      </c>
+    </row>
+    <row r="763" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A763" s="1" t="n">
+        <v>1943</v>
+      </c>
+    </row>
+    <row r="764" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A764" s="1" t="n">
+        <v>1462</v>
+      </c>
+    </row>
+    <row r="765" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A765" s="1" t="n">
+        <v>2663</v>
+      </c>
+    </row>
+    <row r="766" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A766" s="1" t="n">
+        <v>2449</v>
+      </c>
+    </row>
+    <row r="767" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A767" s="1" t="n">
+        <v>2689</v>
+      </c>
+    </row>
+    <row r="768" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A768" s="1" t="n">
+        <v>2572</v>
+      </c>
+    </row>
+    <row r="769" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A769" s="1" t="n">
+        <v>2550</v>
+      </c>
+    </row>
+    <row r="770" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A770" s="1" t="n">
+        <v>1679</v>
+      </c>
+    </row>
+    <row r="771" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A771" s="1" t="n">
+        <v>1640</v>
+      </c>
+    </row>
+    <row r="772" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A772" s="1" t="n">
+        <v>3155</v>
+      </c>
+    </row>
+    <row r="773" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A773" s="1" t="n">
+        <v>2735</v>
+      </c>
+    </row>
+    <row r="774" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A774" s="1" t="n">
+        <v>2752</v>
+      </c>
+    </row>
+    <row r="775" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A775" s="1" t="n">
+        <v>2844</v>
+      </c>
+    </row>
+    <row r="776" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A776" s="1" t="n">
+        <v>2706</v>
+      </c>
+    </row>
+    <row r="777" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A777" s="1" t="n">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="778" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A778" s="1" t="n">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="779" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A779" s="1" t="n">
+        <v>2939</v>
+      </c>
+    </row>
+    <row r="780" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A780" s="1" t="n">
+        <v>2925</v>
+      </c>
+    </row>
+    <row r="781" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A781" s="1" t="n">
+        <v>3236</v>
+      </c>
+    </row>
+    <row r="782" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A782" s="1" t="n">
+        <v>2959</v>
+      </c>
+    </row>
+    <row r="783" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A783" s="1" t="n">
+        <v>2755</v>
+      </c>
+    </row>
+    <row r="784" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A784" s="1" t="n">
+        <v>2257</v>
+      </c>
+    </row>
+    <row r="785" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A785" s="1" t="n">
+        <v>1659</v>
+      </c>
+    </row>
+    <row r="786" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A786" s="1" t="n">
+        <v>3272</v>
+      </c>
+    </row>
+    <row r="787" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A787" s="1" t="n">
+        <v>2776</v>
+      </c>
+    </row>
+    <row r="788" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A788" s="1" t="n">
+        <v>3138</v>
+      </c>
+    </row>
+    <row r="789" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A789" s="1" t="n">
+        <v>2908</v>
+      </c>
+    </row>
+    <row r="790" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A790" s="1" t="n">
+        <v>3043</v>
+      </c>
+    </row>
+    <row r="791" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A791" s="1" t="n">
+        <v>2356</v>
+      </c>
+    </row>
+    <row r="792" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A792" s="1" t="n">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="793" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A793" s="1" t="n">
+        <v>3078</v>
+      </c>
+    </row>
+    <row r="794" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A794" s="1" t="n">
+        <v>2998</v>
+      </c>
+    </row>
+    <row r="795" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A795" s="1" t="n">
+        <v>2553</v>
+      </c>
+    </row>
+    <row r="796" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A796" s="1" t="n">
+        <v>3141</v>
+      </c>
+    </row>
+    <row r="797" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A797" s="1" t="n">
+        <v>3187</v>
+      </c>
+    </row>
+    <row r="798" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A798" s="1" t="n">
+        <v>2318</v>
+      </c>
+    </row>
+    <row r="799" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A799" s="1" t="n">
+        <v>1659</v>
+      </c>
+    </row>
+    <row r="800" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A800" s="1" t="n">
+        <v>3005</v>
+      </c>
+    </row>
+    <row r="801" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A801" s="1" t="n">
+        <v>2818</v>
+      </c>
+    </row>
+    <row r="802" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A802" s="1" t="n">
+        <v>2932</v>
+      </c>
+    </row>
+    <row r="803" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A803" s="1" t="n">
+        <v>3260</v>
+      </c>
+    </row>
+    <row r="804" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A804" s="1" t="n">
+        <v>2876</v>
+      </c>
+    </row>
+    <row r="805" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A805" s="1" t="n">
+        <v>2334</v>
+      </c>
+    </row>
+    <row r="806" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A806" s="1" t="n">
+        <v>1815</v>
+      </c>
+    </row>
+    <row r="807" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A807" s="1" t="n">
+        <v>2990</v>
+      </c>
+    </row>
+    <row r="808" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A808" s="1" t="n">
+        <v>3172</v>
+      </c>
+    </row>
+    <row r="809" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A809" s="1" t="n">
+        <v>3275</v>
+      </c>
+    </row>
+    <row r="810" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A810" s="1" t="n">
+        <v>2660</v>
+      </c>
+    </row>
+    <row r="811" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A811" s="1" t="n">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="812" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A812" s="1" t="n">
+        <v>1409</v>
+      </c>
+    </row>
+    <row r="813" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A813" s="1" t="n">
+        <v>1326</v>
+      </c>
+    </row>
+    <row r="814" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A814" s="1" t="n">
+        <v>1535</v>
+      </c>
+    </row>
+    <row r="815" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A815" s="1" t="n">
+        <v>3100</v>
+      </c>
+    </row>
+    <row r="816" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A816" s="1" t="n">
+        <v>2823</v>
+      </c>
+    </row>
+    <row r="817" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A817" s="1" t="n">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="818" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A818" s="1" t="n">
+        <v>2895</v>
+      </c>
+    </row>
+    <row r="819" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A819" s="1" t="n">
+        <v>2051</v>
+      </c>
+    </row>
+    <row r="820" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A820" s="1" t="n">
+        <v>1633</v>
+      </c>
+    </row>
+    <row r="821" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A821" s="1" t="n">
+        <v>2682</v>
+      </c>
+    </row>
+    <row r="822" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A822" s="1" t="n">
+        <v>2599</v>
+      </c>
+    </row>
+    <row r="823" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A823" s="1" t="n">
+        <v>2697</v>
+      </c>
+    </row>
+    <row r="824" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A824" s="1" t="n">
+        <v>2539</v>
+      </c>
+    </row>
+    <row r="825" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A825" s="1" t="n">
+        <v>2636</v>
+      </c>
+    </row>
+    <row r="826" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A826" s="1" t="n">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="827" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A827" s="1" t="n">
+        <v>1609</v>
+      </c>
+    </row>
+    <row r="828" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A828" s="1" t="n">
+        <v>2692</v>
+      </c>
+    </row>
+    <row r="829" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A829" s="1" t="n">
+        <v>2731</v>
+      </c>
+    </row>
+    <row r="830" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A830" s="1" t="n">
+        <v>2764</v>
+      </c>
+    </row>
+    <row r="831" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A831" s="1" t="n">
+        <v>2626</v>
+      </c>
+    </row>
+    <row r="832" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A832" s="1" t="n">
+        <v>2485</v>
+      </c>
+    </row>
+    <row r="833" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A833" s="1" t="n">
+        <v>2055</v>
+      </c>
+    </row>
+    <row r="834" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A834" s="1" t="n">
+        <v>1553</v>
+      </c>
+    </row>
+    <row r="835" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A835" s="1" t="n">
+        <v>2669</v>
+      </c>
+    </row>
+    <row r="836" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A836" s="1" t="n">
+        <v>2655</v>
+      </c>
+    </row>
+    <row r="837" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A837" s="1" t="n">
+        <v>2779</v>
+      </c>
+    </row>
+    <row r="838" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A838" s="1" t="n">
+        <v>2706</v>
+      </c>
+    </row>
+    <row r="839" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A839" s="1" t="n">
+        <v>2811</v>
+      </c>
+    </row>
+    <row r="840" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A840" s="1" t="n">
+        <v>2140</v>
+      </c>
+    </row>
+    <row r="841" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A841" s="1" t="n">
+        <v>1470</v>
+      </c>
+    </row>
+    <row r="842" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A842" s="1" t="n">
+        <v>2949</v>
+      </c>
+    </row>
+    <row r="843" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A843" s="1" t="n">
+        <v>2971</v>
+      </c>
+    </row>
+    <row r="844" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A844" s="1" t="n">
+        <v>2849</v>
+      </c>
+    </row>
+    <row r="845" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A845" s="1" t="n">
+        <v>2648</v>
+      </c>
+    </row>
+    <row r="846" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A846" s="1" t="n">
+        <v>2713</v>
+      </c>
+    </row>
+    <row r="847" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A847" s="1" t="n">
+        <v>2051</v>
+      </c>
+    </row>
+    <row r="848" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A848" s="1" t="n">
+        <v>1577</v>
+      </c>
+    </row>
+    <row r="849" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A849" s="1" t="n">
+        <v>2794</v>
+      </c>
+    </row>
+    <row r="850" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A850" s="1" t="n">
+        <v>2658</v>
+      </c>
+    </row>
+    <row r="851" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A851" s="1" t="n">
+        <v>2669</v>
+      </c>
+    </row>
+    <row r="852" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A852" s="1" t="n">
+        <v>2813</v>
+      </c>
+    </row>
+    <row r="853" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A853" s="1" t="n">
+        <v>2820</v>
+      </c>
+    </row>
+    <row r="854" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A854" s="1" t="n">
+        <v>2152</v>
+      </c>
+    </row>
+    <row r="855" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A855" s="1" t="n">
+        <v>1538</v>
+      </c>
+    </row>
+    <row r="856" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A856" s="1" t="n">
+        <v>2725</v>
+      </c>
+    </row>
+    <row r="857" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A857" s="1" t="n">
+        <v>2791</v>
+      </c>
+    </row>
+    <row r="858" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A858" s="1" t="n">
+        <v>2762</v>
+      </c>
+    </row>
+    <row r="859" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A859" s="1" t="n">
+        <v>2601</v>
+      </c>
+    </row>
+    <row r="860" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A860" s="1" t="n">
+        <v>2903</v>
+      </c>
+    </row>
+    <row r="861" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A861" s="1" t="n">
+        <v>1970</v>
+      </c>
+    </row>
+    <row r="862" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A862" s="1" t="n">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="863" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A863" s="1" t="n">
+        <v>2584</v>
+      </c>
+    </row>
+    <row r="864" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A864" s="1" t="n">
+        <v>2470</v>
+      </c>
+    </row>
+    <row r="865" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A865" s="1" t="n">
+        <v>2478</v>
+      </c>
+    </row>
+    <row r="866" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A866" s="1" t="n">
+        <v>2456</v>
+      </c>
+    </row>
+    <row r="867" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A867" s="1" t="n">
+        <v>2519</v>
+      </c>
+    </row>
+    <row r="868" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A868" s="1" t="n">
+        <v>1730</v>
+      </c>
+    </row>
+    <row r="869" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A869" s="1" t="n">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="870" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A870" s="1" t="n">
+        <v>2810</v>
+      </c>
+    </row>
+    <row r="871" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A871" s="1" t="n">
+        <v>2762</v>
+      </c>
+    </row>
+    <row r="872" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A872" s="1" t="n">
+        <v>2660</v>
+      </c>
+    </row>
+    <row r="873" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A873" s="1" t="n">
+        <v>2556</v>
+      </c>
+    </row>
+    <row r="874" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A874" s="1" t="n">
+        <v>2308</v>
+      </c>
+    </row>
+    <row r="875" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A875" s="1" t="n">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="876" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A876" s="1" t="n">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="877" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A877" s="1" t="n">
+        <v>2398</v>
+      </c>
+    </row>
+    <row r="878" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A878" s="1" t="n">
+        <v>2262</v>
+      </c>
+    </row>
+    <row r="879" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A879" s="1" t="n">
+        <v>2726</v>
+      </c>
+    </row>
+    <row r="880" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A880" s="1" t="n">
+        <v>2182</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -30085,7 +37583,7 @@
       <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="2.46"/>
   </cols>
@@ -30345,7 +37843,7 @@
       <selection pane="topLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="10" t="s">
@@ -34781,7 +42279,7 @@
       <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="19" t="s">
@@ -34877,9 +42375,9 @@
       <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="42.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="42.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35332,15 +42830,15 @@
   </sheetPr>
   <dimension ref="A1:H880"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="250" zoomScaleNormal="250" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="250" zoomScaleNormal="250" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F6" activeCellId="0" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="2" style="0" width="15.95"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="12.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="12.71"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -62638,7 +70136,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="10" t="s">
@@ -62652,7 +70150,7 @@
       <c r="A2" s="12" t="n">
         <v>0</v>
       </c>
-      <c r="B2" s="25" t="n">
+      <c r="B2" s="13" t="n">
         <v>3123.872</v>
       </c>
     </row>
@@ -62660,7 +70158,7 @@
       <c r="A3" s="14" t="n">
         <v>1</v>
       </c>
-      <c r="B3" s="26" t="n">
+      <c r="B3" s="15" t="n">
         <v>3288.03174603175</v>
       </c>
     </row>
@@ -62668,7 +70166,7 @@
       <c r="A4" s="14" t="n">
         <v>2</v>
       </c>
-      <c r="B4" s="26" t="n">
+      <c r="B4" s="15" t="n">
         <v>3002.36507936508</v>
       </c>
     </row>
@@ -62676,7 +70174,7 @@
       <c r="A5" s="14" t="n">
         <v>3</v>
       </c>
-      <c r="B5" s="26" t="n">
+      <c r="B5" s="15" t="n">
         <v>2901.61904761905</v>
       </c>
     </row>
@@ -62684,7 +70182,7 @@
       <c r="A6" s="14" t="n">
         <v>4</v>
       </c>
-      <c r="B6" s="26" t="n">
+      <c r="B6" s="15" t="n">
         <v>2944.86507936508</v>
       </c>
     </row>
@@ -62692,7 +70190,7 @@
       <c r="A7" s="14" t="n">
         <v>5</v>
       </c>
-      <c r="B7" s="26" t="n">
+      <c r="B7" s="15" t="n">
         <v>3262.656</v>
       </c>
     </row>
@@ -62700,7 +70198,7 @@
       <c r="A8" s="14" t="n">
         <v>6</v>
       </c>
-      <c r="B8" s="27" t="n">
+      <c r="B8" s="16" t="n">
         <v>3228.344</v>
       </c>
     </row>
@@ -62708,7 +70206,7 @@
       <c r="A9" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="28" t="n">
+      <c r="B9" s="18" t="n">
         <v>3107.06029579067</v>
       </c>
     </row>
@@ -62734,13 +70232,13 @@
       <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="25" t="s">
         <v>42</v>
       </c>
       <c r="C1" s="11" t="s">
@@ -62751,19 +70249,19 @@
       <c r="A2" s="12" t="n">
         <v>0</v>
       </c>
-      <c r="B2" s="30" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" s="25" t="n">
+      <c r="B2" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" s="13" t="n">
         <v>2854.02127659574</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="31"/>
-      <c r="B3" s="32" t="n">
+      <c r="A3" s="27"/>
+      <c r="B3" s="28" t="n">
         <v>1</v>
       </c>
-      <c r="C3" s="27" t="n">
+      <c r="C3" s="16" t="n">
         <v>3942.12903225806</v>
       </c>
     </row>
@@ -62771,19 +70269,19 @@
       <c r="A4" s="12" t="n">
         <v>1</v>
       </c>
-      <c r="B4" s="30" t="n">
-        <v>0</v>
-      </c>
-      <c r="C4" s="25" t="n">
+      <c r="B4" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" s="13" t="n">
         <v>3173.92631578947</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="31"/>
-      <c r="B5" s="32" t="n">
+      <c r="A5" s="27"/>
+      <c r="B5" s="28" t="n">
         <v>1</v>
       </c>
-      <c r="C5" s="27" t="n">
+      <c r="C5" s="16" t="n">
         <v>3637.70967741935</v>
       </c>
     </row>
@@ -62791,19 +70289,19 @@
       <c r="A6" s="12" t="n">
         <v>2</v>
       </c>
-      <c r="B6" s="30" t="n">
-        <v>0</v>
-      </c>
-      <c r="C6" s="25" t="n">
+      <c r="B6" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" s="13" t="n">
         <v>2901.20618556701</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="31"/>
-      <c r="B7" s="32" t="n">
+      <c r="A7" s="27"/>
+      <c r="B7" s="28" t="n">
         <v>1</v>
       </c>
-      <c r="C7" s="27" t="n">
+      <c r="C7" s="16" t="n">
         <v>3340.72413793103</v>
       </c>
     </row>
@@ -62811,19 +70309,19 @@
       <c r="A8" s="12" t="n">
         <v>3</v>
       </c>
-      <c r="B8" s="30" t="n">
-        <v>0</v>
-      </c>
-      <c r="C8" s="25" t="n">
+      <c r="B8" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" s="13" t="n">
         <v>2727.60204081633</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="31"/>
-      <c r="B9" s="32" t="n">
+      <c r="A9" s="27"/>
+      <c r="B9" s="28" t="n">
         <v>1</v>
       </c>
-      <c r="C9" s="27" t="n">
+      <c r="C9" s="16" t="n">
         <v>3510.67857142857</v>
       </c>
     </row>
@@ -62831,19 +70329,19 @@
       <c r="A10" s="12" t="n">
         <v>4</v>
       </c>
-      <c r="B10" s="30" t="n">
-        <v>0</v>
-      </c>
-      <c r="C10" s="25" t="n">
+      <c r="B10" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" s="13" t="n">
         <v>2917.23469387755</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="31"/>
-      <c r="B11" s="32" t="n">
+      <c r="A11" s="27"/>
+      <c r="B11" s="28" t="n">
         <v>1</v>
       </c>
-      <c r="C11" s="27" t="n">
+      <c r="C11" s="16" t="n">
         <v>3041.57142857143</v>
       </c>
     </row>
@@ -62851,19 +70349,19 @@
       <c r="A12" s="12" t="n">
         <v>5</v>
       </c>
-      <c r="B12" s="30" t="n">
-        <v>0</v>
-      </c>
-      <c r="C12" s="25" t="n">
+      <c r="B12" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" s="13" t="n">
         <v>3108.03125</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="31"/>
-      <c r="B13" s="32" t="n">
+      <c r="A13" s="27"/>
+      <c r="B13" s="28" t="n">
         <v>1</v>
       </c>
-      <c r="C13" s="27" t="n">
+      <c r="C13" s="16" t="n">
         <v>3774.51724137931</v>
       </c>
     </row>
@@ -62871,28 +70369,28 @@
       <c r="A14" s="12" t="n">
         <v>6</v>
       </c>
-      <c r="B14" s="30" t="n">
-        <v>0</v>
-      </c>
-      <c r="C14" s="25" t="n">
+      <c r="B14" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" s="13" t="n">
         <v>3019.53684210526</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="31"/>
-      <c r="B15" s="32" t="n">
+      <c r="A15" s="27"/>
+      <c r="B15" s="28" t="n">
         <v>1</v>
       </c>
-      <c r="C15" s="27" t="n">
+      <c r="C15" s="16" t="n">
         <v>3889.56666666667</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="33" t="s">
+      <c r="A16" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="B16" s="34"/>
-      <c r="C16" s="28" t="n">
+      <c r="B16" s="30"/>
+      <c r="C16" s="18" t="n">
         <v>3107.06029579067</v>
       </c>
     </row>
@@ -62918,23 +70416,23 @@
       <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="5.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="4" style="0" width="2.46"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C2" s="35" t="s">
+      <c r="C2" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C3" s="0" t="n">
@@ -62960,7 +70458,7 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="35" t="s">
+      <c r="A4" s="31" t="s">
         <v>42</v>
       </c>
       <c r="B4" s="0" t="n">
@@ -62971,7 +70469,7 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="35"/>
+      <c r="A5" s="31"/>
       <c r="B5" s="0" t="n">
         <v>1</v>
       </c>
